--- a/Scholarship.xlsx
+++ b/Scholarship.xlsx
@@ -463,7 +463,7 @@
         <v>2016年10月27日</v>
       </c>
       <c r="D3" s="11">
-        <v>16396</v>
+        <v>16270</v>
       </c>
       <c r="E3" s="11">
         <v>15746</v>
@@ -475,7 +475,7 @@
         <v>512</v>
       </c>
       <c r="H3" s="11">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11">
         <v>3824254</v>
@@ -1014,10 +1014,10 @@
         <v>2018年5月28日</v>
       </c>
       <c r="D22" s="11">
-        <v>373801</v>
+        <v>373792</v>
       </c>
       <c r="E22" s="11">
-        <v>373349</v>
+        <v>373332</v>
       </c>
       <c r="F22" s="11">
         <v>276</v>
@@ -1026,7 +1026,7 @@
         <v>49</v>
       </c>
       <c r="H22" s="11">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I22" s="11">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>返済総額</v>
       </c>
       <c r="D23" s="11">
-        <v>3850115</v>
+        <v>3849980</v>
       </c>
     </row>
     <row r="24" spans="3:4" customFormat="false">
@@ -1045,7 +1045,7 @@
         <v>繰り上げ差額</v>
       </c>
       <c r="D24" s="11">
-        <v>54938</v>
+        <v>54969</v>
       </c>
     </row>
   </sheetData>

--- a/Scholarship.xlsx
+++ b/Scholarship.xlsx
@@ -60,7 +60,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -85,10 +85,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I242"/>
   <sheetData>
     <row r="1" spans="1:1" customFormat="false">
       <c r="A1" s="1" t="str">
@@ -753,13 +749,13 @@
         <v>2017年8月28日</v>
       </c>
       <c r="D13" s="11">
-        <v>1684873</v>
+        <v>16270</v>
       </c>
       <c r="E13" s="11">
-        <v>1683111</v>
+        <v>15768</v>
       </c>
       <c r="F13" s="11">
-        <v>1272</v>
+        <v>12</v>
       </c>
       <c r="G13" s="11">
         <v>490</v>
@@ -768,15 +764,15 @@
         <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>1999330</v>
+        <v>3666673</v>
       </c>
     </row>
     <row r="14" spans="1:9" customFormat="false">
       <c r="A14" s="10">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="B14" s="11">
-        <v>1999330</v>
+        <v>3666673</v>
       </c>
       <c r="C14" s="10" t="str">
         <v>2017年9月27日</v>
@@ -785,27 +781,27 @@
         <v>16270</v>
       </c>
       <c r="E14" s="11">
-        <v>15992</v>
+        <v>15770</v>
       </c>
       <c r="F14" s="11">
         <v>12</v>
       </c>
       <c r="G14" s="11">
-        <v>266</v>
+        <v>488</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
       </c>
       <c r="I14" s="11">
-        <v>1983338</v>
+        <v>3650903</v>
       </c>
     </row>
     <row r="15" spans="1:9" customFormat="false">
       <c r="A15" s="10">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="B15" s="11">
-        <v>1983338</v>
+        <v>3650903</v>
       </c>
       <c r="C15" s="10" t="str">
         <v>2017年10月27日</v>
@@ -814,56 +810,56 @@
         <v>16270</v>
       </c>
       <c r="E15" s="11">
-        <v>15994</v>
+        <v>15772</v>
       </c>
       <c r="F15" s="11">
         <v>12</v>
       </c>
       <c r="G15" s="11">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>1967344</v>
+        <v>3635131</v>
       </c>
     </row>
     <row r="16" spans="1:9" customFormat="false">
       <c r="A16" s="10">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="B16" s="11">
-        <v>1967344</v>
+        <v>3635131</v>
       </c>
       <c r="C16" s="10" t="str">
         <v>2017年11月27日</v>
       </c>
       <c r="D16" s="11">
-        <v>1012954</v>
+        <v>16270</v>
       </c>
       <c r="E16" s="11">
-        <v>1011936</v>
+        <v>15774</v>
       </c>
       <c r="F16" s="11">
-        <v>756</v>
+        <v>12</v>
       </c>
       <c r="G16" s="11">
-        <v>262</v>
+        <v>484</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>955408</v>
+        <v>3619357</v>
       </c>
     </row>
     <row r="17" spans="1:9" customFormat="false">
       <c r="A17" s="10">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="B17" s="11">
-        <v>955408</v>
+        <v>3619357</v>
       </c>
       <c r="C17" s="10" t="str">
         <v>2017年12月27日</v>
@@ -872,27 +868,27 @@
         <v>16270</v>
       </c>
       <c r="E17" s="11">
-        <v>16131</v>
+        <v>15776</v>
       </c>
       <c r="F17" s="11">
         <v>12</v>
       </c>
       <c r="G17" s="11">
-        <v>127</v>
+        <v>482</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>939277</v>
+        <v>3603581</v>
       </c>
     </row>
     <row r="18" spans="1:9" customFormat="false">
       <c r="A18" s="10">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="B18" s="11">
-        <v>939277</v>
+        <v>3603581</v>
       </c>
       <c r="C18" s="10" t="str">
         <v>2018年1月29日</v>
@@ -901,27 +897,27 @@
         <v>16270</v>
       </c>
       <c r="E18" s="11">
-        <v>16133</v>
+        <v>15778</v>
       </c>
       <c r="F18" s="11">
         <v>12</v>
       </c>
       <c r="G18" s="11">
-        <v>125</v>
+        <v>480</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <v>923144</v>
+        <v>3587803</v>
       </c>
     </row>
     <row r="19" spans="1:9" customFormat="false">
       <c r="A19" s="10">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="B19" s="11">
-        <v>923144</v>
+        <v>3587803</v>
       </c>
       <c r="C19" s="10" t="str">
         <v>2018年2月27日</v>
@@ -930,27 +926,27 @@
         <v>16270</v>
       </c>
       <c r="E19" s="11">
-        <v>16135</v>
+        <v>15780</v>
       </c>
       <c r="F19" s="11">
         <v>12</v>
       </c>
       <c r="G19" s="11">
-        <v>123</v>
+        <v>478</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>907009</v>
+        <v>3572023</v>
       </c>
     </row>
     <row r="20" spans="1:9" customFormat="false">
       <c r="A20" s="10">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="B20" s="11">
-        <v>907009</v>
+        <v>3572023</v>
       </c>
       <c r="C20" s="10" t="str">
         <v>2018年3月27日</v>
@@ -959,93 +955,6457 @@
         <v>16270</v>
       </c>
       <c r="E20" s="11">
-        <v>16138</v>
+        <v>15782</v>
       </c>
       <c r="F20" s="11">
         <v>12</v>
       </c>
       <c r="G20" s="11">
-        <v>120</v>
+        <v>476</v>
       </c>
       <c r="H20" s="11">
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <v>890871</v>
+        <v>3556241</v>
       </c>
     </row>
     <row r="21" spans="1:9" customFormat="false">
       <c r="A21" s="10">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="B21" s="11">
-        <v>890871</v>
+        <v>3556241</v>
       </c>
       <c r="C21" s="10" t="str">
         <v>2018年4月27日</v>
       </c>
       <c r="D21" s="11">
-        <v>518041</v>
+        <v>16270</v>
       </c>
       <c r="E21" s="11">
-        <v>517539</v>
+        <v>15784</v>
       </c>
       <c r="F21" s="11">
-        <v>384</v>
+        <v>12</v>
       </c>
       <c r="G21" s="11">
-        <v>118</v>
+        <v>474</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>373332</v>
+        <v>3540457</v>
       </c>
     </row>
     <row r="22" spans="1:9" customFormat="false">
       <c r="A22" s="10">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="B22" s="11">
-        <v>373332</v>
+        <v>3540457</v>
       </c>
       <c r="C22" s="10" t="str">
         <v>2018年5月28日</v>
       </c>
       <c r="D22" s="11">
-        <v>373792</v>
+        <v>16270</v>
       </c>
       <c r="E22" s="11">
+        <v>15786</v>
+      </c>
+      <c r="F22" s="11">
+        <v>12</v>
+      </c>
+      <c r="G22" s="11">
+        <v>472</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>3524671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" customFormat="false">
+      <c r="A23" s="10">
+        <v>220</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3524671</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <v>2018年6月27日</v>
+      </c>
+      <c r="D23" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E23" s="11">
+        <v>15789</v>
+      </c>
+      <c r="F23" s="11">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11">
+        <v>469</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>3508882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" customFormat="false">
+      <c r="A24" s="10">
+        <v>219</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3508882</v>
+      </c>
+      <c r="C24" s="10" t="str">
+        <v>2018年7月27日</v>
+      </c>
+      <c r="D24" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E24" s="11">
+        <v>15791</v>
+      </c>
+      <c r="F24" s="11">
+        <v>12</v>
+      </c>
+      <c r="G24" s="11">
+        <v>467</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>3493091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" customFormat="false">
+      <c r="A25" s="10">
+        <v>218</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3493091</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <v>2018年8月27日</v>
+      </c>
+      <c r="D25" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E25" s="11">
+        <v>15793</v>
+      </c>
+      <c r="F25" s="11">
+        <v>12</v>
+      </c>
+      <c r="G25" s="11">
+        <v>465</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>3477298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" customFormat="false">
+      <c r="A26" s="10">
+        <v>217</v>
+      </c>
+      <c r="B26" s="11">
+        <v>3477298</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <v>2018年9月27日</v>
+      </c>
+      <c r="D26" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E26" s="11">
+        <v>15795</v>
+      </c>
+      <c r="F26" s="11">
+        <v>12</v>
+      </c>
+      <c r="G26" s="11">
+        <v>463</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>3461503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" customFormat="false">
+      <c r="A27" s="10">
+        <v>216</v>
+      </c>
+      <c r="B27" s="11">
+        <v>3461503</v>
+      </c>
+      <c r="C27" s="10" t="str">
+        <v>2018年10月29日</v>
+      </c>
+      <c r="D27" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E27" s="11">
+        <v>15797</v>
+      </c>
+      <c r="F27" s="11">
+        <v>12</v>
+      </c>
+      <c r="G27" s="11">
+        <v>461</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>3445706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" customFormat="false">
+      <c r="A28" s="10">
+        <v>215</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3445706</v>
+      </c>
+      <c r="C28" s="10" t="str">
+        <v>2018年11月27日</v>
+      </c>
+      <c r="D28" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E28" s="11">
+        <v>15799</v>
+      </c>
+      <c r="F28" s="11">
+        <v>12</v>
+      </c>
+      <c r="G28" s="11">
+        <v>459</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>3429907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" customFormat="false">
+      <c r="A29" s="10">
+        <v>214</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3429907</v>
+      </c>
+      <c r="C29" s="10" t="str">
+        <v>2018年12月27日</v>
+      </c>
+      <c r="D29" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E29" s="11">
+        <v>15801</v>
+      </c>
+      <c r="F29" s="11">
+        <v>12</v>
+      </c>
+      <c r="G29" s="11">
+        <v>457</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>3414106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" customFormat="false">
+      <c r="A30" s="10">
+        <v>213</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3414106</v>
+      </c>
+      <c r="C30" s="10" t="str">
+        <v>2019年1月28日</v>
+      </c>
+      <c r="D30" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E30" s="11">
+        <v>15803</v>
+      </c>
+      <c r="F30" s="11">
+        <v>12</v>
+      </c>
+      <c r="G30" s="11">
+        <v>455</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>3398303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" customFormat="false">
+      <c r="A31" s="10">
+        <v>212</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3398303</v>
+      </c>
+      <c r="C31" s="10" t="str">
+        <v>2019年2月27日</v>
+      </c>
+      <c r="D31" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E31" s="11">
+        <v>15805</v>
+      </c>
+      <c r="F31" s="11">
+        <v>12</v>
+      </c>
+      <c r="G31" s="11">
+        <v>453</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>3382498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" customFormat="false">
+      <c r="A32" s="10">
+        <v>211</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3382498</v>
+      </c>
+      <c r="C32" s="10" t="str">
+        <v>2019年3月27日</v>
+      </c>
+      <c r="D32" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E32" s="11">
+        <v>15808</v>
+      </c>
+      <c r="F32" s="11">
+        <v>12</v>
+      </c>
+      <c r="G32" s="11">
+        <v>450</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>3366690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" customFormat="false">
+      <c r="A33" s="10">
+        <v>210</v>
+      </c>
+      <c r="B33" s="11">
+        <v>3366690</v>
+      </c>
+      <c r="C33" s="10" t="str">
+        <v>2019年4月29日</v>
+      </c>
+      <c r="D33" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E33" s="11">
+        <v>15810</v>
+      </c>
+      <c r="F33" s="11">
+        <v>12</v>
+      </c>
+      <c r="G33" s="11">
+        <v>448</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>3350880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" customFormat="false">
+      <c r="A34" s="10">
+        <v>209</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3350880</v>
+      </c>
+      <c r="C34" s="10" t="str">
+        <v>2019年5月27日</v>
+      </c>
+      <c r="D34" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E34" s="11">
+        <v>15812</v>
+      </c>
+      <c r="F34" s="11">
+        <v>12</v>
+      </c>
+      <c r="G34" s="11">
+        <v>446</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>3335068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" customFormat="false">
+      <c r="A35" s="10">
+        <v>208</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3335068</v>
+      </c>
+      <c r="C35" s="10" t="str">
+        <v>2019年6月27日</v>
+      </c>
+      <c r="D35" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E35" s="11">
+        <v>15814</v>
+      </c>
+      <c r="F35" s="11">
+        <v>12</v>
+      </c>
+      <c r="G35" s="11">
+        <v>444</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>3319254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" customFormat="false">
+      <c r="A36" s="10">
+        <v>207</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3319254</v>
+      </c>
+      <c r="C36" s="10" t="str">
+        <v>2019年7月29日</v>
+      </c>
+      <c r="D36" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E36" s="11">
+        <v>15816</v>
+      </c>
+      <c r="F36" s="11">
+        <v>12</v>
+      </c>
+      <c r="G36" s="11">
+        <v>442</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>3303438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" customFormat="false">
+      <c r="A37" s="10">
+        <v>206</v>
+      </c>
+      <c r="B37" s="11">
+        <v>3303438</v>
+      </c>
+      <c r="C37" s="10" t="str">
+        <v>2019年8月27日</v>
+      </c>
+      <c r="D37" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E37" s="11">
+        <v>15818</v>
+      </c>
+      <c r="F37" s="11">
+        <v>12</v>
+      </c>
+      <c r="G37" s="11">
+        <v>440</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>3287620</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" customFormat="false">
+      <c r="A38" s="10">
+        <v>205</v>
+      </c>
+      <c r="B38" s="11">
+        <v>3287620</v>
+      </c>
+      <c r="C38" s="10" t="str">
+        <v>2019年9月27日</v>
+      </c>
+      <c r="D38" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E38" s="11">
+        <v>15820</v>
+      </c>
+      <c r="F38" s="11">
+        <v>12</v>
+      </c>
+      <c r="G38" s="11">
+        <v>438</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>3271800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" customFormat="false">
+      <c r="A39" s="10">
+        <v>204</v>
+      </c>
+      <c r="B39" s="11">
+        <v>3271800</v>
+      </c>
+      <c r="C39" s="10" t="str">
+        <v>2019年10月28日</v>
+      </c>
+      <c r="D39" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E39" s="11">
+        <v>15822</v>
+      </c>
+      <c r="F39" s="11">
+        <v>12</v>
+      </c>
+      <c r="G39" s="11">
+        <v>436</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>3255978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" customFormat="false">
+      <c r="A40" s="10">
+        <v>203</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3255978</v>
+      </c>
+      <c r="C40" s="10" t="str">
+        <v>2019年11月27日</v>
+      </c>
+      <c r="D40" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E40" s="11">
+        <v>15824</v>
+      </c>
+      <c r="F40" s="11">
+        <v>12</v>
+      </c>
+      <c r="G40" s="11">
+        <v>434</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>3240154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" customFormat="false">
+      <c r="A41" s="10">
+        <v>202</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3240154</v>
+      </c>
+      <c r="C41" s="10" t="str">
+        <v>2019年12月27日</v>
+      </c>
+      <c r="D41" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E41" s="11">
+        <v>15826</v>
+      </c>
+      <c r="F41" s="11">
+        <v>12</v>
+      </c>
+      <c r="G41" s="11">
+        <v>432</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>3224328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" customFormat="false">
+      <c r="A42" s="10">
+        <v>201</v>
+      </c>
+      <c r="B42" s="11">
+        <v>3224328</v>
+      </c>
+      <c r="C42" s="10" t="str">
+        <v>2020年1月27日</v>
+      </c>
+      <c r="D42" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E42" s="11">
+        <v>15829</v>
+      </c>
+      <c r="F42" s="11">
+        <v>12</v>
+      </c>
+      <c r="G42" s="11">
+        <v>429</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>3208499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" customFormat="false">
+      <c r="A43" s="10">
+        <v>200</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3208499</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <v>2020年2月27日</v>
+      </c>
+      <c r="D43" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E43" s="11">
+        <v>15831</v>
+      </c>
+      <c r="F43" s="11">
+        <v>12</v>
+      </c>
+      <c r="G43" s="11">
+        <v>427</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>3192668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" customFormat="false">
+      <c r="A44" s="10">
+        <v>199</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3192668</v>
+      </c>
+      <c r="C44" s="10" t="str">
+        <v>2020年3月27日</v>
+      </c>
+      <c r="D44" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E44" s="11">
+        <v>15833</v>
+      </c>
+      <c r="F44" s="11">
+        <v>12</v>
+      </c>
+      <c r="G44" s="11">
+        <v>425</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>3176835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" customFormat="false">
+      <c r="A45" s="10">
+        <v>198</v>
+      </c>
+      <c r="B45" s="11">
+        <v>3176835</v>
+      </c>
+      <c r="C45" s="10" t="str">
+        <v>2020年4月27日</v>
+      </c>
+      <c r="D45" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E45" s="11">
+        <v>15835</v>
+      </c>
+      <c r="F45" s="11">
+        <v>12</v>
+      </c>
+      <c r="G45" s="11">
+        <v>423</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>3161000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" customFormat="false">
+      <c r="A46" s="10">
+        <v>197</v>
+      </c>
+      <c r="B46" s="11">
+        <v>3161000</v>
+      </c>
+      <c r="C46" s="10" t="str">
+        <v>2020年5月27日</v>
+      </c>
+      <c r="D46" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E46" s="11">
+        <v>15837</v>
+      </c>
+      <c r="F46" s="11">
+        <v>12</v>
+      </c>
+      <c r="G46" s="11">
+        <v>421</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>3145163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" customFormat="false">
+      <c r="A47" s="10">
+        <v>196</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3145163</v>
+      </c>
+      <c r="C47" s="10" t="str">
+        <v>2020年6月29日</v>
+      </c>
+      <c r="D47" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E47" s="11">
+        <v>15839</v>
+      </c>
+      <c r="F47" s="11">
+        <v>12</v>
+      </c>
+      <c r="G47" s="11">
+        <v>419</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>3129324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" customFormat="false">
+      <c r="A48" s="10">
+        <v>195</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3129324</v>
+      </c>
+      <c r="C48" s="10" t="str">
+        <v>2020年7月27日</v>
+      </c>
+      <c r="D48" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E48" s="11">
+        <v>15841</v>
+      </c>
+      <c r="F48" s="11">
+        <v>12</v>
+      </c>
+      <c r="G48" s="11">
+        <v>417</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>3113483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" customFormat="false">
+      <c r="A49" s="10">
+        <v>194</v>
+      </c>
+      <c r="B49" s="11">
+        <v>3113483</v>
+      </c>
+      <c r="C49" s="10" t="str">
+        <v>2020年8月27日</v>
+      </c>
+      <c r="D49" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E49" s="11">
+        <v>15843</v>
+      </c>
+      <c r="F49" s="11">
+        <v>12</v>
+      </c>
+      <c r="G49" s="11">
+        <v>415</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>3097640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" customFormat="false">
+      <c r="A50" s="10">
+        <v>193</v>
+      </c>
+      <c r="B50" s="11">
+        <v>3097640</v>
+      </c>
+      <c r="C50" s="10" t="str">
+        <v>2020年9月28日</v>
+      </c>
+      <c r="D50" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E50" s="11">
+        <v>15845</v>
+      </c>
+      <c r="F50" s="11">
+        <v>12</v>
+      </c>
+      <c r="G50" s="11">
+        <v>413</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>3081795</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" customFormat="false">
+      <c r="A51" s="10">
+        <v>192</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3081795</v>
+      </c>
+      <c r="C51" s="10" t="str">
+        <v>2020年10月27日</v>
+      </c>
+      <c r="D51" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E51" s="11">
+        <v>15848</v>
+      </c>
+      <c r="F51" s="11">
+        <v>12</v>
+      </c>
+      <c r="G51" s="11">
+        <v>410</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>3065947</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" customFormat="false">
+      <c r="A52" s="10">
+        <v>191</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3065947</v>
+      </c>
+      <c r="C52" s="10" t="str">
+        <v>2020年11月27日</v>
+      </c>
+      <c r="D52" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E52" s="11">
+        <v>15850</v>
+      </c>
+      <c r="F52" s="11">
+        <v>12</v>
+      </c>
+      <c r="G52" s="11">
+        <v>408</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>3050097</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" customFormat="false">
+      <c r="A53" s="10">
+        <v>190</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3050097</v>
+      </c>
+      <c r="C53" s="10" t="str">
+        <v>2020年12月28日</v>
+      </c>
+      <c r="D53" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E53" s="11">
+        <v>15852</v>
+      </c>
+      <c r="F53" s="11">
+        <v>12</v>
+      </c>
+      <c r="G53" s="11">
+        <v>406</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>3034245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" customFormat="false">
+      <c r="A54" s="10">
+        <v>189</v>
+      </c>
+      <c r="B54" s="11">
+        <v>3034245</v>
+      </c>
+      <c r="C54" s="10" t="str">
+        <v>2021年1月27日</v>
+      </c>
+      <c r="D54" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E54" s="11">
+        <v>15854</v>
+      </c>
+      <c r="F54" s="11">
+        <v>12</v>
+      </c>
+      <c r="G54" s="11">
+        <v>404</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>3018391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" customFormat="false">
+      <c r="A55" s="10">
+        <v>188</v>
+      </c>
+      <c r="B55" s="11">
+        <v>3018391</v>
+      </c>
+      <c r="C55" s="10" t="str">
+        <v>2021年3月1日</v>
+      </c>
+      <c r="D55" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E55" s="11">
+        <v>15856</v>
+      </c>
+      <c r="F55" s="11">
+        <v>12</v>
+      </c>
+      <c r="G55" s="11">
+        <v>402</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>3002535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" customFormat="false">
+      <c r="A56" s="10">
+        <v>187</v>
+      </c>
+      <c r="B56" s="11">
+        <v>3002535</v>
+      </c>
+      <c r="C56" s="10" t="str">
+        <v>2021年3月29日</v>
+      </c>
+      <c r="D56" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E56" s="11">
+        <v>15858</v>
+      </c>
+      <c r="F56" s="11">
+        <v>12</v>
+      </c>
+      <c r="G56" s="11">
+        <v>400</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>2986677</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" customFormat="false">
+      <c r="A57" s="10">
+        <v>186</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2986677</v>
+      </c>
+      <c r="C57" s="10" t="str">
+        <v>2021年4月27日</v>
+      </c>
+      <c r="D57" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E57" s="11">
+        <v>15860</v>
+      </c>
+      <c r="F57" s="11">
+        <v>12</v>
+      </c>
+      <c r="G57" s="11">
+        <v>398</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>2970817</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" customFormat="false">
+      <c r="A58" s="10">
+        <v>185</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2970817</v>
+      </c>
+      <c r="C58" s="10" t="str">
+        <v>2021年5月27日</v>
+      </c>
+      <c r="D58" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E58" s="11">
+        <v>15862</v>
+      </c>
+      <c r="F58" s="11">
+        <v>12</v>
+      </c>
+      <c r="G58" s="11">
+        <v>396</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>2954955</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" customFormat="false">
+      <c r="A59" s="10">
+        <v>184</v>
+      </c>
+      <c r="B59" s="11">
+        <v>2954955</v>
+      </c>
+      <c r="C59" s="10" t="str">
+        <v>2021年6月28日</v>
+      </c>
+      <c r="D59" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E59" s="11">
+        <v>15865</v>
+      </c>
+      <c r="F59" s="11">
+        <v>12</v>
+      </c>
+      <c r="G59" s="11">
+        <v>393</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>2939090</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" customFormat="false">
+      <c r="A60" s="10">
+        <v>183</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2939090</v>
+      </c>
+      <c r="C60" s="10" t="str">
+        <v>2021年7月27日</v>
+      </c>
+      <c r="D60" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E60" s="11">
+        <v>15867</v>
+      </c>
+      <c r="F60" s="11">
+        <v>12</v>
+      </c>
+      <c r="G60" s="11">
+        <v>391</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>2923223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" customFormat="false">
+      <c r="A61" s="10">
+        <v>182</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2923223</v>
+      </c>
+      <c r="C61" s="10" t="str">
+        <v>2021年8月27日</v>
+      </c>
+      <c r="D61" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E61" s="11">
+        <v>15869</v>
+      </c>
+      <c r="F61" s="11">
+        <v>12</v>
+      </c>
+      <c r="G61" s="11">
+        <v>389</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>2907354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" customFormat="false">
+      <c r="A62" s="10">
+        <v>181</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2907354</v>
+      </c>
+      <c r="C62" s="10" t="str">
+        <v>2021年9月27日</v>
+      </c>
+      <c r="D62" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E62" s="11">
+        <v>15871</v>
+      </c>
+      <c r="F62" s="11">
+        <v>12</v>
+      </c>
+      <c r="G62" s="11">
+        <v>387</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>2891483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" customFormat="false">
+      <c r="A63" s="10">
+        <v>180</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2891483</v>
+      </c>
+      <c r="C63" s="10" t="str">
+        <v>2021年10月27日</v>
+      </c>
+      <c r="D63" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E63" s="11">
+        <v>15873</v>
+      </c>
+      <c r="F63" s="11">
+        <v>12</v>
+      </c>
+      <c r="G63" s="11">
+        <v>385</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>2875610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" customFormat="false">
+      <c r="A64" s="10">
+        <v>179</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2875610</v>
+      </c>
+      <c r="C64" s="10" t="str">
+        <v>2021年11月29日</v>
+      </c>
+      <c r="D64" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E64" s="11">
+        <v>15875</v>
+      </c>
+      <c r="F64" s="11">
+        <v>12</v>
+      </c>
+      <c r="G64" s="11">
+        <v>383</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>2859735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" customFormat="false">
+      <c r="A65" s="10">
+        <v>178</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2859735</v>
+      </c>
+      <c r="C65" s="10" t="str">
+        <v>2021年12月27日</v>
+      </c>
+      <c r="D65" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E65" s="11">
+        <v>15877</v>
+      </c>
+      <c r="F65" s="11">
+        <v>12</v>
+      </c>
+      <c r="G65" s="11">
+        <v>381</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>2843858</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" customFormat="false">
+      <c r="A66" s="10">
+        <v>177</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2843858</v>
+      </c>
+      <c r="C66" s="10" t="str">
+        <v>2022年1月27日</v>
+      </c>
+      <c r="D66" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E66" s="11">
+        <v>15879</v>
+      </c>
+      <c r="F66" s="11">
+        <v>12</v>
+      </c>
+      <c r="G66" s="11">
+        <v>379</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>2827979</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" customFormat="false">
+      <c r="A67" s="10">
+        <v>176</v>
+      </c>
+      <c r="B67" s="11">
+        <v>2827979</v>
+      </c>
+      <c r="C67" s="10" t="str">
+        <v>2022年2月28日</v>
+      </c>
+      <c r="D67" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E67" s="11">
+        <v>15881</v>
+      </c>
+      <c r="F67" s="11">
+        <v>12</v>
+      </c>
+      <c r="G67" s="11">
+        <v>377</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>2812098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" customFormat="false">
+      <c r="A68" s="10">
+        <v>175</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2812098</v>
+      </c>
+      <c r="C68" s="10" t="str">
+        <v>2022年3月28日</v>
+      </c>
+      <c r="D68" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E68" s="11">
+        <v>15884</v>
+      </c>
+      <c r="F68" s="11">
+        <v>12</v>
+      </c>
+      <c r="G68" s="11">
+        <v>374</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0</v>
+      </c>
+      <c r="I68" s="11">
+        <v>2796214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" customFormat="false">
+      <c r="A69" s="10">
+        <v>174</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2796214</v>
+      </c>
+      <c r="C69" s="10" t="str">
+        <v>2022年4月27日</v>
+      </c>
+      <c r="D69" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E69" s="11">
+        <v>15886</v>
+      </c>
+      <c r="F69" s="11">
+        <v>12</v>
+      </c>
+      <c r="G69" s="11">
+        <v>372</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>2780328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" customFormat="false">
+      <c r="A70" s="10">
+        <v>173</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2780328</v>
+      </c>
+      <c r="C70" s="10" t="str">
+        <v>2022年5月27日</v>
+      </c>
+      <c r="D70" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E70" s="11">
+        <v>15888</v>
+      </c>
+      <c r="F70" s="11">
+        <v>12</v>
+      </c>
+      <c r="G70" s="11">
+        <v>370</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>2764440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" customFormat="false">
+      <c r="A71" s="10">
+        <v>172</v>
+      </c>
+      <c r="B71" s="11">
+        <v>2764440</v>
+      </c>
+      <c r="C71" s="10" t="str">
+        <v>2022年6月27日</v>
+      </c>
+      <c r="D71" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E71" s="11">
+        <v>15890</v>
+      </c>
+      <c r="F71" s="11">
+        <v>12</v>
+      </c>
+      <c r="G71" s="11">
+        <v>368</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>2748550</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" customFormat="false">
+      <c r="A72" s="10">
+        <v>171</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2748550</v>
+      </c>
+      <c r="C72" s="10" t="str">
+        <v>2022年7月27日</v>
+      </c>
+      <c r="D72" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E72" s="11">
+        <v>15892</v>
+      </c>
+      <c r="F72" s="11">
+        <v>12</v>
+      </c>
+      <c r="G72" s="11">
+        <v>366</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>2732658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" customFormat="false">
+      <c r="A73" s="10">
+        <v>170</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2732658</v>
+      </c>
+      <c r="C73" s="10" t="str">
+        <v>2022年8月29日</v>
+      </c>
+      <c r="D73" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E73" s="11">
+        <v>15894</v>
+      </c>
+      <c r="F73" s="11">
+        <v>12</v>
+      </c>
+      <c r="G73" s="11">
+        <v>364</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>2716764</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" customFormat="false">
+      <c r="A74" s="10">
+        <v>169</v>
+      </c>
+      <c r="B74" s="11">
+        <v>2716764</v>
+      </c>
+      <c r="C74" s="10" t="str">
+        <v>2022年9月27日</v>
+      </c>
+      <c r="D74" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E74" s="11">
+        <v>15896</v>
+      </c>
+      <c r="F74" s="11">
+        <v>12</v>
+      </c>
+      <c r="G74" s="11">
+        <v>362</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>2700868</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" customFormat="false">
+      <c r="A75" s="10">
+        <v>168</v>
+      </c>
+      <c r="B75" s="11">
+        <v>2700868</v>
+      </c>
+      <c r="C75" s="10" t="str">
+        <v>2022年10月27日</v>
+      </c>
+      <c r="D75" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E75" s="11">
+        <v>15898</v>
+      </c>
+      <c r="F75" s="11">
+        <v>12</v>
+      </c>
+      <c r="G75" s="11">
+        <v>360</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>2684970</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" customFormat="false">
+      <c r="A76" s="10">
+        <v>167</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2684970</v>
+      </c>
+      <c r="C76" s="10" t="str">
+        <v>2022年11月28日</v>
+      </c>
+      <c r="D76" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E76" s="11">
+        <v>15901</v>
+      </c>
+      <c r="F76" s="11">
+        <v>12</v>
+      </c>
+      <c r="G76" s="11">
+        <v>357</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>2669069</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" customFormat="false">
+      <c r="A77" s="10">
+        <v>166</v>
+      </c>
+      <c r="B77" s="11">
+        <v>2669069</v>
+      </c>
+      <c r="C77" s="10" t="str">
+        <v>2022年12月27日</v>
+      </c>
+      <c r="D77" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E77" s="11">
+        <v>15903</v>
+      </c>
+      <c r="F77" s="11">
+        <v>12</v>
+      </c>
+      <c r="G77" s="11">
+        <v>355</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>2653166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" customFormat="false">
+      <c r="A78" s="10">
+        <v>165</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2653166</v>
+      </c>
+      <c r="C78" s="10" t="str">
+        <v>2023年1月27日</v>
+      </c>
+      <c r="D78" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E78" s="11">
+        <v>15905</v>
+      </c>
+      <c r="F78" s="11">
+        <v>12</v>
+      </c>
+      <c r="G78" s="11">
+        <v>353</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>2637261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" customFormat="false">
+      <c r="A79" s="10">
+        <v>164</v>
+      </c>
+      <c r="B79" s="11">
+        <v>2637261</v>
+      </c>
+      <c r="C79" s="10" t="str">
+        <v>2023年2月27日</v>
+      </c>
+      <c r="D79" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E79" s="11">
+        <v>15907</v>
+      </c>
+      <c r="F79" s="11">
+        <v>12</v>
+      </c>
+      <c r="G79" s="11">
+        <v>351</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11">
+        <v>2621354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" customFormat="false">
+      <c r="A80" s="10">
+        <v>163</v>
+      </c>
+      <c r="B80" s="11">
+        <v>2621354</v>
+      </c>
+      <c r="C80" s="10" t="str">
+        <v>2023年3月27日</v>
+      </c>
+      <c r="D80" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E80" s="11">
+        <v>15909</v>
+      </c>
+      <c r="F80" s="11">
+        <v>12</v>
+      </c>
+      <c r="G80" s="11">
+        <v>349</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11">
+        <v>2605445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" customFormat="false">
+      <c r="A81" s="10">
+        <v>162</v>
+      </c>
+      <c r="B81" s="11">
+        <v>2605445</v>
+      </c>
+      <c r="C81" s="10" t="str">
+        <v>2023年4月27日</v>
+      </c>
+      <c r="D81" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E81" s="11">
+        <v>15911</v>
+      </c>
+      <c r="F81" s="11">
+        <v>12</v>
+      </c>
+      <c r="G81" s="11">
+        <v>347</v>
+      </c>
+      <c r="H81" s="11">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>2589534</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" customFormat="false">
+      <c r="A82" s="10">
+        <v>161</v>
+      </c>
+      <c r="B82" s="11">
+        <v>2589534</v>
+      </c>
+      <c r="C82" s="10" t="str">
+        <v>2023年5月29日</v>
+      </c>
+      <c r="D82" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E82" s="11">
+        <v>15913</v>
+      </c>
+      <c r="F82" s="11">
+        <v>12</v>
+      </c>
+      <c r="G82" s="11">
+        <v>345</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>2573621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" customFormat="false">
+      <c r="A83" s="10">
+        <v>160</v>
+      </c>
+      <c r="B83" s="11">
+        <v>2573621</v>
+      </c>
+      <c r="C83" s="10" t="str">
+        <v>2023年6月27日</v>
+      </c>
+      <c r="D83" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E83" s="11">
+        <v>15915</v>
+      </c>
+      <c r="F83" s="11">
+        <v>12</v>
+      </c>
+      <c r="G83" s="11">
+        <v>343</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>2557706</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" customFormat="false">
+      <c r="A84" s="10">
+        <v>159</v>
+      </c>
+      <c r="B84" s="11">
+        <v>2557706</v>
+      </c>
+      <c r="C84" s="10" t="str">
+        <v>2023年7月27日</v>
+      </c>
+      <c r="D84" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E84" s="11">
+        <v>15917</v>
+      </c>
+      <c r="F84" s="11">
+        <v>12</v>
+      </c>
+      <c r="G84" s="11">
+        <v>341</v>
+      </c>
+      <c r="H84" s="11">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>2541789</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" customFormat="false">
+      <c r="A85" s="10">
+        <v>158</v>
+      </c>
+      <c r="B85" s="11">
+        <v>2541789</v>
+      </c>
+      <c r="C85" s="10" t="str">
+        <v>2023年8月28日</v>
+      </c>
+      <c r="D85" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E85" s="11">
+        <v>15920</v>
+      </c>
+      <c r="F85" s="11">
+        <v>12</v>
+      </c>
+      <c r="G85" s="11">
+        <v>338</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>2525869</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" customFormat="false">
+      <c r="A86" s="10">
+        <v>157</v>
+      </c>
+      <c r="B86" s="11">
+        <v>2525869</v>
+      </c>
+      <c r="C86" s="10" t="str">
+        <v>2023年9月27日</v>
+      </c>
+      <c r="D86" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E86" s="11">
+        <v>15922</v>
+      </c>
+      <c r="F86" s="11">
+        <v>12</v>
+      </c>
+      <c r="G86" s="11">
+        <v>336</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>2509947</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" customFormat="false">
+      <c r="A87" s="10">
+        <v>156</v>
+      </c>
+      <c r="B87" s="11">
+        <v>2509947</v>
+      </c>
+      <c r="C87" s="10" t="str">
+        <v>2023年10月27日</v>
+      </c>
+      <c r="D87" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E87" s="11">
+        <v>15924</v>
+      </c>
+      <c r="F87" s="11">
+        <v>12</v>
+      </c>
+      <c r="G87" s="11">
+        <v>334</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>2494023</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" customFormat="false">
+      <c r="A88" s="10">
+        <v>155</v>
+      </c>
+      <c r="B88" s="11">
+        <v>2494023</v>
+      </c>
+      <c r="C88" s="10" t="str">
+        <v>2023年11月27日</v>
+      </c>
+      <c r="D88" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E88" s="11">
+        <v>15926</v>
+      </c>
+      <c r="F88" s="11">
+        <v>12</v>
+      </c>
+      <c r="G88" s="11">
+        <v>332</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>2478097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" customFormat="false">
+      <c r="A89" s="10">
+        <v>154</v>
+      </c>
+      <c r="B89" s="11">
+        <v>2478097</v>
+      </c>
+      <c r="C89" s="10" t="str">
+        <v>2023年12月27日</v>
+      </c>
+      <c r="D89" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E89" s="11">
+        <v>15928</v>
+      </c>
+      <c r="F89" s="11">
+        <v>12</v>
+      </c>
+      <c r="G89" s="11">
+        <v>330</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0</v>
+      </c>
+      <c r="I89" s="11">
+        <v>2462169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" customFormat="false">
+      <c r="A90" s="10">
+        <v>153</v>
+      </c>
+      <c r="B90" s="11">
+        <v>2462169</v>
+      </c>
+      <c r="C90" s="10" t="str">
+        <v>2024年1月29日</v>
+      </c>
+      <c r="D90" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E90" s="11">
+        <v>15930</v>
+      </c>
+      <c r="F90" s="11">
+        <v>12</v>
+      </c>
+      <c r="G90" s="11">
+        <v>328</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>2446239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" customFormat="false">
+      <c r="A91" s="10">
+        <v>152</v>
+      </c>
+      <c r="B91" s="11">
+        <v>2446239</v>
+      </c>
+      <c r="C91" s="10" t="str">
+        <v>2024年2月27日</v>
+      </c>
+      <c r="D91" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E91" s="11">
+        <v>15932</v>
+      </c>
+      <c r="F91" s="11">
+        <v>12</v>
+      </c>
+      <c r="G91" s="11">
+        <v>326</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>2430307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" customFormat="false">
+      <c r="A92" s="10">
+        <v>151</v>
+      </c>
+      <c r="B92" s="11">
+        <v>2430307</v>
+      </c>
+      <c r="C92" s="10" t="str">
+        <v>2024年3月27日</v>
+      </c>
+      <c r="D92" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E92" s="11">
+        <v>15934</v>
+      </c>
+      <c r="F92" s="11">
+        <v>12</v>
+      </c>
+      <c r="G92" s="11">
+        <v>324</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>2414373</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" customFormat="false">
+      <c r="A93" s="10">
+        <v>150</v>
+      </c>
+      <c r="B93" s="11">
+        <v>2414373</v>
+      </c>
+      <c r="C93" s="10" t="str">
+        <v>2024年4月29日</v>
+      </c>
+      <c r="D93" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E93" s="11">
+        <v>15937</v>
+      </c>
+      <c r="F93" s="11">
+        <v>12</v>
+      </c>
+      <c r="G93" s="11">
+        <v>321</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>2398436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" customFormat="false">
+      <c r="A94" s="10">
+        <v>149</v>
+      </c>
+      <c r="B94" s="11">
+        <v>2398436</v>
+      </c>
+      <c r="C94" s="10" t="str">
+        <v>2024年5月27日</v>
+      </c>
+      <c r="D94" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E94" s="11">
+        <v>15939</v>
+      </c>
+      <c r="F94" s="11">
+        <v>12</v>
+      </c>
+      <c r="G94" s="11">
+        <v>319</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
+        <v>2382497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" customFormat="false">
+      <c r="A95" s="10">
+        <v>148</v>
+      </c>
+      <c r="B95" s="11">
+        <v>2382497</v>
+      </c>
+      <c r="C95" s="10" t="str">
+        <v>2024年6月27日</v>
+      </c>
+      <c r="D95" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E95" s="11">
+        <v>15941</v>
+      </c>
+      <c r="F95" s="11">
+        <v>12</v>
+      </c>
+      <c r="G95" s="11">
+        <v>317</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>2366556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" customFormat="false">
+      <c r="A96" s="10">
+        <v>147</v>
+      </c>
+      <c r="B96" s="11">
+        <v>2366556</v>
+      </c>
+      <c r="C96" s="10" t="str">
+        <v>2024年7月29日</v>
+      </c>
+      <c r="D96" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E96" s="11">
+        <v>15943</v>
+      </c>
+      <c r="F96" s="11">
+        <v>12</v>
+      </c>
+      <c r="G96" s="11">
+        <v>315</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11">
+        <v>2350613</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" customFormat="false">
+      <c r="A97" s="10">
+        <v>146</v>
+      </c>
+      <c r="B97" s="11">
+        <v>2350613</v>
+      </c>
+      <c r="C97" s="10" t="str">
+        <v>2024年8月27日</v>
+      </c>
+      <c r="D97" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E97" s="11">
+        <v>15945</v>
+      </c>
+      <c r="F97" s="11">
+        <v>12</v>
+      </c>
+      <c r="G97" s="11">
+        <v>313</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11">
+        <v>2334668</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" customFormat="false">
+      <c r="A98" s="10">
+        <v>145</v>
+      </c>
+      <c r="B98" s="11">
+        <v>2334668</v>
+      </c>
+      <c r="C98" s="10" t="str">
+        <v>2024年9月27日</v>
+      </c>
+      <c r="D98" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E98" s="11">
+        <v>15947</v>
+      </c>
+      <c r="F98" s="11">
+        <v>12</v>
+      </c>
+      <c r="G98" s="11">
+        <v>311</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="11">
+        <v>2318721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" customFormat="false">
+      <c r="A99" s="10">
+        <v>144</v>
+      </c>
+      <c r="B99" s="11">
+        <v>2318721</v>
+      </c>
+      <c r="C99" s="10" t="str">
+        <v>2024年10月28日</v>
+      </c>
+      <c r="D99" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E99" s="11">
+        <v>15949</v>
+      </c>
+      <c r="F99" s="11">
+        <v>12</v>
+      </c>
+      <c r="G99" s="11">
+        <v>309</v>
+      </c>
+      <c r="H99" s="11">
+        <v>0</v>
+      </c>
+      <c r="I99" s="11">
+        <v>2302772</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" customFormat="false">
+      <c r="A100" s="10">
+        <v>143</v>
+      </c>
+      <c r="B100" s="11">
+        <v>2302772</v>
+      </c>
+      <c r="C100" s="10" t="str">
+        <v>2024年11月27日</v>
+      </c>
+      <c r="D100" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E100" s="11">
+        <v>15951</v>
+      </c>
+      <c r="F100" s="11">
+        <v>12</v>
+      </c>
+      <c r="G100" s="11">
+        <v>307</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0</v>
+      </c>
+      <c r="I100" s="11">
+        <v>2286821</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" customFormat="false">
+      <c r="A101" s="10">
+        <v>142</v>
+      </c>
+      <c r="B101" s="11">
+        <v>2286821</v>
+      </c>
+      <c r="C101" s="10" t="str">
+        <v>2024年12月27日</v>
+      </c>
+      <c r="D101" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E101" s="11">
+        <v>15954</v>
+      </c>
+      <c r="F101" s="11">
+        <v>12</v>
+      </c>
+      <c r="G101" s="11">
+        <v>304</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0</v>
+      </c>
+      <c r="I101" s="11">
+        <v>2270867</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" customFormat="false">
+      <c r="A102" s="10">
+        <v>141</v>
+      </c>
+      <c r="B102" s="11">
+        <v>2270867</v>
+      </c>
+      <c r="C102" s="10" t="str">
+        <v>2025年1月27日</v>
+      </c>
+      <c r="D102" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E102" s="11">
+        <v>15956</v>
+      </c>
+      <c r="F102" s="11">
+        <v>12</v>
+      </c>
+      <c r="G102" s="11">
+        <v>302</v>
+      </c>
+      <c r="H102" s="11">
+        <v>0</v>
+      </c>
+      <c r="I102" s="11">
+        <v>2254911</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" customFormat="false">
+      <c r="A103" s="10">
+        <v>140</v>
+      </c>
+      <c r="B103" s="11">
+        <v>2254911</v>
+      </c>
+      <c r="C103" s="10" t="str">
+        <v>2025年2月27日</v>
+      </c>
+      <c r="D103" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E103" s="11">
+        <v>15958</v>
+      </c>
+      <c r="F103" s="11">
+        <v>12</v>
+      </c>
+      <c r="G103" s="11">
+        <v>300</v>
+      </c>
+      <c r="H103" s="11">
+        <v>0</v>
+      </c>
+      <c r="I103" s="11">
+        <v>2238953</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" customFormat="false">
+      <c r="A104" s="10">
+        <v>139</v>
+      </c>
+      <c r="B104" s="11">
+        <v>2238953</v>
+      </c>
+      <c r="C104" s="10" t="str">
+        <v>2025年3月27日</v>
+      </c>
+      <c r="D104" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E104" s="11">
+        <v>15960</v>
+      </c>
+      <c r="F104" s="11">
+        <v>12</v>
+      </c>
+      <c r="G104" s="11">
+        <v>298</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11">
+        <v>2222993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" customFormat="false">
+      <c r="A105" s="10">
+        <v>138</v>
+      </c>
+      <c r="B105" s="11">
+        <v>2222993</v>
+      </c>
+      <c r="C105" s="10" t="str">
+        <v>2025年4月28日</v>
+      </c>
+      <c r="D105" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E105" s="11">
+        <v>15962</v>
+      </c>
+      <c r="F105" s="11">
+        <v>12</v>
+      </c>
+      <c r="G105" s="11">
+        <v>296</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0</v>
+      </c>
+      <c r="I105" s="11">
+        <v>2207031</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" customFormat="false">
+      <c r="A106" s="10">
+        <v>137</v>
+      </c>
+      <c r="B106" s="11">
+        <v>2207031</v>
+      </c>
+      <c r="C106" s="10" t="str">
+        <v>2025年5月27日</v>
+      </c>
+      <c r="D106" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E106" s="11">
+        <v>15964</v>
+      </c>
+      <c r="F106" s="11">
+        <v>12</v>
+      </c>
+      <c r="G106" s="11">
+        <v>294</v>
+      </c>
+      <c r="H106" s="11">
+        <v>0</v>
+      </c>
+      <c r="I106" s="11">
+        <v>2191067</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" customFormat="false">
+      <c r="A107" s="10">
+        <v>136</v>
+      </c>
+      <c r="B107" s="11">
+        <v>2191067</v>
+      </c>
+      <c r="C107" s="10" t="str">
+        <v>2025年6月27日</v>
+      </c>
+      <c r="D107" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E107" s="11">
+        <v>15966</v>
+      </c>
+      <c r="F107" s="11">
+        <v>12</v>
+      </c>
+      <c r="G107" s="11">
+        <v>292</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0</v>
+      </c>
+      <c r="I107" s="11">
+        <v>2175101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" customFormat="false">
+      <c r="A108" s="10">
+        <v>135</v>
+      </c>
+      <c r="B108" s="11">
+        <v>2175101</v>
+      </c>
+      <c r="C108" s="10" t="str">
+        <v>2025年7月28日</v>
+      </c>
+      <c r="D108" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E108" s="11">
+        <v>15968</v>
+      </c>
+      <c r="F108" s="11">
+        <v>12</v>
+      </c>
+      <c r="G108" s="11">
+        <v>290</v>
+      </c>
+      <c r="H108" s="11">
+        <v>0</v>
+      </c>
+      <c r="I108" s="11">
+        <v>2159133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" customFormat="false">
+      <c r="A109" s="10">
+        <v>134</v>
+      </c>
+      <c r="B109" s="11">
+        <v>2159133</v>
+      </c>
+      <c r="C109" s="10" t="str">
+        <v>2025年8月27日</v>
+      </c>
+      <c r="D109" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E109" s="11">
+        <v>15971</v>
+      </c>
+      <c r="F109" s="11">
+        <v>12</v>
+      </c>
+      <c r="G109" s="11">
+        <v>287</v>
+      </c>
+      <c r="H109" s="11">
+        <v>0</v>
+      </c>
+      <c r="I109" s="11">
+        <v>2143162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" customFormat="false">
+      <c r="A110" s="10">
+        <v>133</v>
+      </c>
+      <c r="B110" s="11">
+        <v>2143162</v>
+      </c>
+      <c r="C110" s="10" t="str">
+        <v>2025年9月29日</v>
+      </c>
+      <c r="D110" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E110" s="11">
+        <v>15973</v>
+      </c>
+      <c r="F110" s="11">
+        <v>12</v>
+      </c>
+      <c r="G110" s="11">
+        <v>285</v>
+      </c>
+      <c r="H110" s="11">
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <v>2127189</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" customFormat="false">
+      <c r="A111" s="10">
+        <v>132</v>
+      </c>
+      <c r="B111" s="11">
+        <v>2127189</v>
+      </c>
+      <c r="C111" s="10" t="str">
+        <v>2025年10月27日</v>
+      </c>
+      <c r="D111" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E111" s="11">
+        <v>15975</v>
+      </c>
+      <c r="F111" s="11">
+        <v>12</v>
+      </c>
+      <c r="G111" s="11">
+        <v>283</v>
+      </c>
+      <c r="H111" s="11">
+        <v>0</v>
+      </c>
+      <c r="I111" s="11">
+        <v>2111214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" customFormat="false">
+      <c r="A112" s="10">
+        <v>131</v>
+      </c>
+      <c r="B112" s="11">
+        <v>2111214</v>
+      </c>
+      <c r="C112" s="10" t="str">
+        <v>2025年11月27日</v>
+      </c>
+      <c r="D112" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E112" s="11">
+        <v>15977</v>
+      </c>
+      <c r="F112" s="11">
+        <v>12</v>
+      </c>
+      <c r="G112" s="11">
+        <v>281</v>
+      </c>
+      <c r="H112" s="11">
+        <v>0</v>
+      </c>
+      <c r="I112" s="11">
+        <v>2095237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" customFormat="false">
+      <c r="A113" s="10">
+        <v>130</v>
+      </c>
+      <c r="B113" s="11">
+        <v>2095237</v>
+      </c>
+      <c r="C113" s="10" t="str">
+        <v>2025年12月29日</v>
+      </c>
+      <c r="D113" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E113" s="11">
+        <v>15979</v>
+      </c>
+      <c r="F113" s="11">
+        <v>12</v>
+      </c>
+      <c r="G113" s="11">
+        <v>279</v>
+      </c>
+      <c r="H113" s="11">
+        <v>0</v>
+      </c>
+      <c r="I113" s="11">
+        <v>2079258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" customFormat="false">
+      <c r="A114" s="10">
+        <v>129</v>
+      </c>
+      <c r="B114" s="11">
+        <v>2079258</v>
+      </c>
+      <c r="C114" s="10" t="str">
+        <v>2026年1月27日</v>
+      </c>
+      <c r="D114" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E114" s="11">
+        <v>15981</v>
+      </c>
+      <c r="F114" s="11">
+        <v>12</v>
+      </c>
+      <c r="G114" s="11">
+        <v>277</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0</v>
+      </c>
+      <c r="I114" s="11">
+        <v>2063277</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" customFormat="false">
+      <c r="A115" s="10">
+        <v>128</v>
+      </c>
+      <c r="B115" s="11">
+        <v>2063277</v>
+      </c>
+      <c r="C115" s="10" t="str">
+        <v>2026年2月27日</v>
+      </c>
+      <c r="D115" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E115" s="11">
+        <v>15983</v>
+      </c>
+      <c r="F115" s="11">
+        <v>12</v>
+      </c>
+      <c r="G115" s="11">
+        <v>275</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
+      </c>
+      <c r="I115" s="11">
+        <v>2047294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" customFormat="false">
+      <c r="A116" s="10">
+        <v>127</v>
+      </c>
+      <c r="B116" s="11">
+        <v>2047294</v>
+      </c>
+      <c r="C116" s="10" t="str">
+        <v>2026年3月27日</v>
+      </c>
+      <c r="D116" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E116" s="11">
+        <v>15986</v>
+      </c>
+      <c r="F116" s="11">
+        <v>12</v>
+      </c>
+      <c r="G116" s="11">
+        <v>272</v>
+      </c>
+      <c r="H116" s="11">
+        <v>0</v>
+      </c>
+      <c r="I116" s="11">
+        <v>2031308</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" customFormat="false">
+      <c r="A117" s="10">
+        <v>126</v>
+      </c>
+      <c r="B117" s="11">
+        <v>2031308</v>
+      </c>
+      <c r="C117" s="10" t="str">
+        <v>2026年4月27日</v>
+      </c>
+      <c r="D117" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E117" s="11">
+        <v>15988</v>
+      </c>
+      <c r="F117" s="11">
+        <v>12</v>
+      </c>
+      <c r="G117" s="11">
+        <v>270</v>
+      </c>
+      <c r="H117" s="11">
+        <v>0</v>
+      </c>
+      <c r="I117" s="11">
+        <v>2015320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" customFormat="false">
+      <c r="A118" s="10">
+        <v>125</v>
+      </c>
+      <c r="B118" s="11">
+        <v>2015320</v>
+      </c>
+      <c r="C118" s="10" t="str">
+        <v>2026年5月27日</v>
+      </c>
+      <c r="D118" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E118" s="11">
+        <v>15990</v>
+      </c>
+      <c r="F118" s="11">
+        <v>12</v>
+      </c>
+      <c r="G118" s="11">
+        <v>268</v>
+      </c>
+      <c r="H118" s="11">
+        <v>0</v>
+      </c>
+      <c r="I118" s="11">
+        <v>1999330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" customFormat="false">
+      <c r="A119" s="10">
+        <v>124</v>
+      </c>
+      <c r="B119" s="11">
+        <v>1999330</v>
+      </c>
+      <c r="C119" s="10" t="str">
+        <v>2026年6月29日</v>
+      </c>
+      <c r="D119" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E119" s="11">
+        <v>15992</v>
+      </c>
+      <c r="F119" s="11">
+        <v>12</v>
+      </c>
+      <c r="G119" s="11">
+        <v>266</v>
+      </c>
+      <c r="H119" s="11">
+        <v>0</v>
+      </c>
+      <c r="I119" s="11">
+        <v>1983338</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" customFormat="false">
+      <c r="A120" s="10">
+        <v>123</v>
+      </c>
+      <c r="B120" s="11">
+        <v>1983338</v>
+      </c>
+      <c r="C120" s="10" t="str">
+        <v>2026年7月27日</v>
+      </c>
+      <c r="D120" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E120" s="11">
+        <v>15994</v>
+      </c>
+      <c r="F120" s="11">
+        <v>12</v>
+      </c>
+      <c r="G120" s="11">
+        <v>264</v>
+      </c>
+      <c r="H120" s="11">
+        <v>0</v>
+      </c>
+      <c r="I120" s="11">
+        <v>1967344</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" customFormat="false">
+      <c r="A121" s="10">
+        <v>122</v>
+      </c>
+      <c r="B121" s="11">
+        <v>1967344</v>
+      </c>
+      <c r="C121" s="10" t="str">
+        <v>2026年8月27日</v>
+      </c>
+      <c r="D121" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E121" s="11">
+        <v>15996</v>
+      </c>
+      <c r="F121" s="11">
+        <v>12</v>
+      </c>
+      <c r="G121" s="11">
+        <v>262</v>
+      </c>
+      <c r="H121" s="11">
+        <v>0</v>
+      </c>
+      <c r="I121" s="11">
+        <v>1951348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" customFormat="false">
+      <c r="A122" s="10">
+        <v>121</v>
+      </c>
+      <c r="B122" s="11">
+        <v>1951348</v>
+      </c>
+      <c r="C122" s="10" t="str">
+        <v>2026年9月28日</v>
+      </c>
+      <c r="D122" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E122" s="11">
+        <v>15998</v>
+      </c>
+      <c r="F122" s="11">
+        <v>12</v>
+      </c>
+      <c r="G122" s="11">
+        <v>260</v>
+      </c>
+      <c r="H122" s="11">
+        <v>0</v>
+      </c>
+      <c r="I122" s="11">
+        <v>1935350</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" customFormat="false">
+      <c r="A123" s="10">
+        <v>120</v>
+      </c>
+      <c r="B123" s="11">
+        <v>1935350</v>
+      </c>
+      <c r="C123" s="10" t="str">
+        <v>2026年10月27日</v>
+      </c>
+      <c r="D123" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E123" s="11">
+        <v>16000</v>
+      </c>
+      <c r="F123" s="11">
+        <v>12</v>
+      </c>
+      <c r="G123" s="11">
+        <v>258</v>
+      </c>
+      <c r="H123" s="11">
+        <v>0</v>
+      </c>
+      <c r="I123" s="11">
+        <v>1919350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" customFormat="false">
+      <c r="A124" s="10">
+        <v>119</v>
+      </c>
+      <c r="B124" s="11">
+        <v>1919350</v>
+      </c>
+      <c r="C124" s="10" t="str">
+        <v>2026年11月27日</v>
+      </c>
+      <c r="D124" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E124" s="11">
+        <v>16003</v>
+      </c>
+      <c r="F124" s="11">
+        <v>12</v>
+      </c>
+      <c r="G124" s="11">
+        <v>255</v>
+      </c>
+      <c r="H124" s="11">
+        <v>0</v>
+      </c>
+      <c r="I124" s="11">
+        <v>1903347</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" customFormat="false">
+      <c r="A125" s="10">
+        <v>118</v>
+      </c>
+      <c r="B125" s="11">
+        <v>1903347</v>
+      </c>
+      <c r="C125" s="10" t="str">
+        <v>2026年12月28日</v>
+      </c>
+      <c r="D125" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E125" s="11">
+        <v>16005</v>
+      </c>
+      <c r="F125" s="11">
+        <v>12</v>
+      </c>
+      <c r="G125" s="11">
+        <v>253</v>
+      </c>
+      <c r="H125" s="11">
+        <v>0</v>
+      </c>
+      <c r="I125" s="11">
+        <v>1887342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" customFormat="false">
+      <c r="A126" s="10">
+        <v>117</v>
+      </c>
+      <c r="B126" s="11">
+        <v>1887342</v>
+      </c>
+      <c r="C126" s="10" t="str">
+        <v>2027年1月27日</v>
+      </c>
+      <c r="D126" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E126" s="11">
+        <v>16007</v>
+      </c>
+      <c r="F126" s="11">
+        <v>12</v>
+      </c>
+      <c r="G126" s="11">
+        <v>251</v>
+      </c>
+      <c r="H126" s="11">
+        <v>0</v>
+      </c>
+      <c r="I126" s="11">
+        <v>1871335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" customFormat="false">
+      <c r="A127" s="10">
+        <v>116</v>
+      </c>
+      <c r="B127" s="11">
+        <v>1871335</v>
+      </c>
+      <c r="C127" s="10" t="str">
+        <v>2027年3月1日</v>
+      </c>
+      <c r="D127" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E127" s="11">
+        <v>16009</v>
+      </c>
+      <c r="F127" s="11">
+        <v>12</v>
+      </c>
+      <c r="G127" s="11">
+        <v>249</v>
+      </c>
+      <c r="H127" s="11">
+        <v>0</v>
+      </c>
+      <c r="I127" s="11">
+        <v>1855326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" customFormat="false">
+      <c r="A128" s="10">
+        <v>115</v>
+      </c>
+      <c r="B128" s="11">
+        <v>1855326</v>
+      </c>
+      <c r="C128" s="10" t="str">
+        <v>2027年3月29日</v>
+      </c>
+      <c r="D128" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E128" s="11">
+        <v>16011</v>
+      </c>
+      <c r="F128" s="11">
+        <v>12</v>
+      </c>
+      <c r="G128" s="11">
+        <v>247</v>
+      </c>
+      <c r="H128" s="11">
+        <v>0</v>
+      </c>
+      <c r="I128" s="11">
+        <v>1839315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" customFormat="false">
+      <c r="A129" s="10">
+        <v>114</v>
+      </c>
+      <c r="B129" s="11">
+        <v>1839315</v>
+      </c>
+      <c r="C129" s="10" t="str">
+        <v>2027年4月27日</v>
+      </c>
+      <c r="D129" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E129" s="11">
+        <v>16013</v>
+      </c>
+      <c r="F129" s="11">
+        <v>12</v>
+      </c>
+      <c r="G129" s="11">
+        <v>245</v>
+      </c>
+      <c r="H129" s="11">
+        <v>0</v>
+      </c>
+      <c r="I129" s="11">
+        <v>1823302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" customFormat="false">
+      <c r="A130" s="10">
+        <v>113</v>
+      </c>
+      <c r="B130" s="11">
+        <v>1823302</v>
+      </c>
+      <c r="C130" s="10" t="str">
+        <v>2027年5月27日</v>
+      </c>
+      <c r="D130" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E130" s="11">
+        <v>16015</v>
+      </c>
+      <c r="F130" s="11">
+        <v>12</v>
+      </c>
+      <c r="G130" s="11">
+        <v>243</v>
+      </c>
+      <c r="H130" s="11">
+        <v>0</v>
+      </c>
+      <c r="I130" s="11">
+        <v>1807287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" customFormat="false">
+      <c r="A131" s="10">
+        <v>112</v>
+      </c>
+      <c r="B131" s="11">
+        <v>1807287</v>
+      </c>
+      <c r="C131" s="10" t="str">
+        <v>2027年6月28日</v>
+      </c>
+      <c r="D131" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E131" s="11">
+        <v>16018</v>
+      </c>
+      <c r="F131" s="11">
+        <v>12</v>
+      </c>
+      <c r="G131" s="11">
+        <v>240</v>
+      </c>
+      <c r="H131" s="11">
+        <v>0</v>
+      </c>
+      <c r="I131" s="11">
+        <v>1791269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" customFormat="false">
+      <c r="A132" s="10">
+        <v>111</v>
+      </c>
+      <c r="B132" s="11">
+        <v>1791269</v>
+      </c>
+      <c r="C132" s="10" t="str">
+        <v>2027年7月27日</v>
+      </c>
+      <c r="D132" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E132" s="11">
+        <v>16020</v>
+      </c>
+      <c r="F132" s="11">
+        <v>12</v>
+      </c>
+      <c r="G132" s="11">
+        <v>238</v>
+      </c>
+      <c r="H132" s="11">
+        <v>0</v>
+      </c>
+      <c r="I132" s="11">
+        <v>1775249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" customFormat="false">
+      <c r="A133" s="10">
+        <v>110</v>
+      </c>
+      <c r="B133" s="11">
+        <v>1775249</v>
+      </c>
+      <c r="C133" s="10" t="str">
+        <v>2027年8月27日</v>
+      </c>
+      <c r="D133" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E133" s="11">
+        <v>16022</v>
+      </c>
+      <c r="F133" s="11">
+        <v>12</v>
+      </c>
+      <c r="G133" s="11">
+        <v>236</v>
+      </c>
+      <c r="H133" s="11">
+        <v>0</v>
+      </c>
+      <c r="I133" s="11">
+        <v>1759227</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" customFormat="false">
+      <c r="A134" s="10">
+        <v>109</v>
+      </c>
+      <c r="B134" s="11">
+        <v>1759227</v>
+      </c>
+      <c r="C134" s="10" t="str">
+        <v>2027年9月27日</v>
+      </c>
+      <c r="D134" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E134" s="11">
+        <v>16024</v>
+      </c>
+      <c r="F134" s="11">
+        <v>12</v>
+      </c>
+      <c r="G134" s="11">
+        <v>234</v>
+      </c>
+      <c r="H134" s="11">
+        <v>0</v>
+      </c>
+      <c r="I134" s="11">
+        <v>1743203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" customFormat="false">
+      <c r="A135" s="10">
+        <v>108</v>
+      </c>
+      <c r="B135" s="11">
+        <v>1743203</v>
+      </c>
+      <c r="C135" s="10" t="str">
+        <v>2027年10月27日</v>
+      </c>
+      <c r="D135" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E135" s="11">
+        <v>16026</v>
+      </c>
+      <c r="F135" s="11">
+        <v>12</v>
+      </c>
+      <c r="G135" s="11">
+        <v>232</v>
+      </c>
+      <c r="H135" s="11">
+        <v>0</v>
+      </c>
+      <c r="I135" s="11">
+        <v>1727177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" customFormat="false">
+      <c r="A136" s="10">
+        <v>107</v>
+      </c>
+      <c r="B136" s="11">
+        <v>1727177</v>
+      </c>
+      <c r="C136" s="10" t="str">
+        <v>2027年11月29日</v>
+      </c>
+      <c r="D136" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E136" s="11">
+        <v>16028</v>
+      </c>
+      <c r="F136" s="11">
+        <v>12</v>
+      </c>
+      <c r="G136" s="11">
+        <v>230</v>
+      </c>
+      <c r="H136" s="11">
+        <v>0</v>
+      </c>
+      <c r="I136" s="11">
+        <v>1711149</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" customFormat="false">
+      <c r="A137" s="10">
+        <v>106</v>
+      </c>
+      <c r="B137" s="11">
+        <v>1711149</v>
+      </c>
+      <c r="C137" s="10" t="str">
+        <v>2027年12月27日</v>
+      </c>
+      <c r="D137" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E137" s="11">
+        <v>16030</v>
+      </c>
+      <c r="F137" s="11">
+        <v>12</v>
+      </c>
+      <c r="G137" s="11">
+        <v>228</v>
+      </c>
+      <c r="H137" s="11">
+        <v>0</v>
+      </c>
+      <c r="I137" s="11">
+        <v>1695119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" customFormat="false">
+      <c r="A138" s="10">
+        <v>105</v>
+      </c>
+      <c r="B138" s="11">
+        <v>1695119</v>
+      </c>
+      <c r="C138" s="10" t="str">
+        <v>2028年1月27日</v>
+      </c>
+      <c r="D138" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E138" s="11">
+        <v>16032</v>
+      </c>
+      <c r="F138" s="11">
+        <v>12</v>
+      </c>
+      <c r="G138" s="11">
+        <v>226</v>
+      </c>
+      <c r="H138" s="11">
+        <v>0</v>
+      </c>
+      <c r="I138" s="11">
+        <v>1679087</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" customFormat="false">
+      <c r="A139" s="10">
+        <v>104</v>
+      </c>
+      <c r="B139" s="11">
+        <v>1679087</v>
+      </c>
+      <c r="C139" s="10" t="str">
+        <v>2028年2月28日</v>
+      </c>
+      <c r="D139" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E139" s="11">
+        <v>16035</v>
+      </c>
+      <c r="F139" s="11">
+        <v>12</v>
+      </c>
+      <c r="G139" s="11">
+        <v>223</v>
+      </c>
+      <c r="H139" s="11">
+        <v>0</v>
+      </c>
+      <c r="I139" s="11">
+        <v>1663052</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" customFormat="false">
+      <c r="A140" s="10">
+        <v>103</v>
+      </c>
+      <c r="B140" s="11">
+        <v>1663052</v>
+      </c>
+      <c r="C140" s="10" t="str">
+        <v>2028年3月27日</v>
+      </c>
+      <c r="D140" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E140" s="11">
+        <v>16037</v>
+      </c>
+      <c r="F140" s="11">
+        <v>12</v>
+      </c>
+      <c r="G140" s="11">
+        <v>221</v>
+      </c>
+      <c r="H140" s="11">
+        <v>0</v>
+      </c>
+      <c r="I140" s="11">
+        <v>1647015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" customFormat="false">
+      <c r="A141" s="10">
+        <v>102</v>
+      </c>
+      <c r="B141" s="11">
+        <v>1647015</v>
+      </c>
+      <c r="C141" s="10" t="str">
+        <v>2028年4月27日</v>
+      </c>
+      <c r="D141" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E141" s="11">
+        <v>16039</v>
+      </c>
+      <c r="F141" s="11">
+        <v>12</v>
+      </c>
+      <c r="G141" s="11">
+        <v>219</v>
+      </c>
+      <c r="H141" s="11">
+        <v>0</v>
+      </c>
+      <c r="I141" s="11">
+        <v>1630976</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" customFormat="false">
+      <c r="A142" s="10">
+        <v>101</v>
+      </c>
+      <c r="B142" s="11">
+        <v>1630976</v>
+      </c>
+      <c r="C142" s="10" t="str">
+        <v>2028年5月29日</v>
+      </c>
+      <c r="D142" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E142" s="11">
+        <v>16041</v>
+      </c>
+      <c r="F142" s="11">
+        <v>12</v>
+      </c>
+      <c r="G142" s="11">
+        <v>217</v>
+      </c>
+      <c r="H142" s="11">
+        <v>0</v>
+      </c>
+      <c r="I142" s="11">
+        <v>1614935</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" customFormat="false">
+      <c r="A143" s="10">
+        <v>100</v>
+      </c>
+      <c r="B143" s="11">
+        <v>1614935</v>
+      </c>
+      <c r="C143" s="10" t="str">
+        <v>2028年6月27日</v>
+      </c>
+      <c r="D143" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E143" s="11">
+        <v>16043</v>
+      </c>
+      <c r="F143" s="11">
+        <v>12</v>
+      </c>
+      <c r="G143" s="11">
+        <v>215</v>
+      </c>
+      <c r="H143" s="11">
+        <v>0</v>
+      </c>
+      <c r="I143" s="11">
+        <v>1598892</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" customFormat="false">
+      <c r="A144" s="10">
+        <v>99</v>
+      </c>
+      <c r="B144" s="11">
+        <v>1598892</v>
+      </c>
+      <c r="C144" s="10" t="str">
+        <v>2028年7月27日</v>
+      </c>
+      <c r="D144" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E144" s="11">
+        <v>16045</v>
+      </c>
+      <c r="F144" s="11">
+        <v>12</v>
+      </c>
+      <c r="G144" s="11">
+        <v>213</v>
+      </c>
+      <c r="H144" s="11">
+        <v>0</v>
+      </c>
+      <c r="I144" s="11">
+        <v>1582847</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" customFormat="false">
+      <c r="A145" s="10">
+        <v>98</v>
+      </c>
+      <c r="B145" s="11">
+        <v>1582847</v>
+      </c>
+      <c r="C145" s="10" t="str">
+        <v>2028年8月28日</v>
+      </c>
+      <c r="D145" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E145" s="11">
+        <v>16047</v>
+      </c>
+      <c r="F145" s="11">
+        <v>12</v>
+      </c>
+      <c r="G145" s="11">
+        <v>211</v>
+      </c>
+      <c r="H145" s="11">
+        <v>0</v>
+      </c>
+      <c r="I145" s="11">
+        <v>1566800</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" customFormat="false">
+      <c r="A146" s="10">
+        <v>97</v>
+      </c>
+      <c r="B146" s="11">
+        <v>1566800</v>
+      </c>
+      <c r="C146" s="10" t="str">
+        <v>2028年9月27日</v>
+      </c>
+      <c r="D146" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E146" s="11">
+        <v>16050</v>
+      </c>
+      <c r="F146" s="11">
+        <v>12</v>
+      </c>
+      <c r="G146" s="11">
+        <v>208</v>
+      </c>
+      <c r="H146" s="11">
+        <v>0</v>
+      </c>
+      <c r="I146" s="11">
+        <v>1550750</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" customFormat="false">
+      <c r="A147" s="10">
+        <v>96</v>
+      </c>
+      <c r="B147" s="11">
+        <v>1550750</v>
+      </c>
+      <c r="C147" s="10" t="str">
+        <v>2028年10月27日</v>
+      </c>
+      <c r="D147" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E147" s="11">
+        <v>16052</v>
+      </c>
+      <c r="F147" s="11">
+        <v>12</v>
+      </c>
+      <c r="G147" s="11">
+        <v>206</v>
+      </c>
+      <c r="H147" s="11">
+        <v>0</v>
+      </c>
+      <c r="I147" s="11">
+        <v>1534698</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" customFormat="false">
+      <c r="A148" s="10">
+        <v>95</v>
+      </c>
+      <c r="B148" s="11">
+        <v>1534698</v>
+      </c>
+      <c r="C148" s="10" t="str">
+        <v>2028年11月27日</v>
+      </c>
+      <c r="D148" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E148" s="11">
+        <v>16054</v>
+      </c>
+      <c r="F148" s="11">
+        <v>12</v>
+      </c>
+      <c r="G148" s="11">
+        <v>204</v>
+      </c>
+      <c r="H148" s="11">
+        <v>0</v>
+      </c>
+      <c r="I148" s="11">
+        <v>1518644</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" customFormat="false">
+      <c r="A149" s="10">
+        <v>94</v>
+      </c>
+      <c r="B149" s="11">
+        <v>1518644</v>
+      </c>
+      <c r="C149" s="10" t="str">
+        <v>2028年12月27日</v>
+      </c>
+      <c r="D149" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E149" s="11">
+        <v>16056</v>
+      </c>
+      <c r="F149" s="11">
+        <v>12</v>
+      </c>
+      <c r="G149" s="11">
+        <v>202</v>
+      </c>
+      <c r="H149" s="11">
+        <v>0</v>
+      </c>
+      <c r="I149" s="11">
+        <v>1502588</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" customFormat="false">
+      <c r="A150" s="10">
+        <v>93</v>
+      </c>
+      <c r="B150" s="11">
+        <v>1502588</v>
+      </c>
+      <c r="C150" s="10" t="str">
+        <v>2029年1月29日</v>
+      </c>
+      <c r="D150" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E150" s="11">
+        <v>16058</v>
+      </c>
+      <c r="F150" s="11">
+        <v>12</v>
+      </c>
+      <c r="G150" s="11">
+        <v>200</v>
+      </c>
+      <c r="H150" s="11">
+        <v>0</v>
+      </c>
+      <c r="I150" s="11">
+        <v>1486530</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" customFormat="false">
+      <c r="A151" s="10">
+        <v>92</v>
+      </c>
+      <c r="B151" s="11">
+        <v>1486530</v>
+      </c>
+      <c r="C151" s="10" t="str">
+        <v>2029年2月27日</v>
+      </c>
+      <c r="D151" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E151" s="11">
+        <v>16060</v>
+      </c>
+      <c r="F151" s="11">
+        <v>12</v>
+      </c>
+      <c r="G151" s="11">
+        <v>198</v>
+      </c>
+      <c r="H151" s="11">
+        <v>0</v>
+      </c>
+      <c r="I151" s="11">
+        <v>1470470</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" customFormat="false">
+      <c r="A152" s="10">
+        <v>91</v>
+      </c>
+      <c r="B152" s="11">
+        <v>1470470</v>
+      </c>
+      <c r="C152" s="10" t="str">
+        <v>2029年3月27日</v>
+      </c>
+      <c r="D152" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E152" s="11">
+        <v>16062</v>
+      </c>
+      <c r="F152" s="11">
+        <v>12</v>
+      </c>
+      <c r="G152" s="11">
+        <v>196</v>
+      </c>
+      <c r="H152" s="11">
+        <v>0</v>
+      </c>
+      <c r="I152" s="11">
+        <v>1454408</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" customFormat="false">
+      <c r="A153" s="10">
+        <v>90</v>
+      </c>
+      <c r="B153" s="11">
+        <v>1454408</v>
+      </c>
+      <c r="C153" s="10" t="str">
+        <v>2029年4月27日</v>
+      </c>
+      <c r="D153" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E153" s="11">
+        <v>16065</v>
+      </c>
+      <c r="F153" s="11">
+        <v>12</v>
+      </c>
+      <c r="G153" s="11">
+        <v>193</v>
+      </c>
+      <c r="H153" s="11">
+        <v>0</v>
+      </c>
+      <c r="I153" s="11">
+        <v>1438343</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" customFormat="false">
+      <c r="A154" s="10">
+        <v>89</v>
+      </c>
+      <c r="B154" s="11">
+        <v>1438343</v>
+      </c>
+      <c r="C154" s="10" t="str">
+        <v>2029年5月28日</v>
+      </c>
+      <c r="D154" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E154" s="11">
+        <v>16067</v>
+      </c>
+      <c r="F154" s="11">
+        <v>12</v>
+      </c>
+      <c r="G154" s="11">
+        <v>191</v>
+      </c>
+      <c r="H154" s="11">
+        <v>0</v>
+      </c>
+      <c r="I154" s="11">
+        <v>1422276</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" customFormat="false">
+      <c r="A155" s="10">
+        <v>88</v>
+      </c>
+      <c r="B155" s="11">
+        <v>1422276</v>
+      </c>
+      <c r="C155" s="10" t="str">
+        <v>2029年6月27日</v>
+      </c>
+      <c r="D155" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E155" s="11">
+        <v>16069</v>
+      </c>
+      <c r="F155" s="11">
+        <v>12</v>
+      </c>
+      <c r="G155" s="11">
+        <v>189</v>
+      </c>
+      <c r="H155" s="11">
+        <v>0</v>
+      </c>
+      <c r="I155" s="11">
+        <v>1406207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" customFormat="false">
+      <c r="A156" s="10">
+        <v>87</v>
+      </c>
+      <c r="B156" s="11">
+        <v>1406207</v>
+      </c>
+      <c r="C156" s="10" t="str">
+        <v>2029年7月27日</v>
+      </c>
+      <c r="D156" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E156" s="11">
+        <v>16071</v>
+      </c>
+      <c r="F156" s="11">
+        <v>12</v>
+      </c>
+      <c r="G156" s="11">
+        <v>187</v>
+      </c>
+      <c r="H156" s="11">
+        <v>0</v>
+      </c>
+      <c r="I156" s="11">
+        <v>1390136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" customFormat="false">
+      <c r="A157" s="10">
+        <v>86</v>
+      </c>
+      <c r="B157" s="11">
+        <v>1390136</v>
+      </c>
+      <c r="C157" s="10" t="str">
+        <v>2029年8月27日</v>
+      </c>
+      <c r="D157" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E157" s="11">
+        <v>16073</v>
+      </c>
+      <c r="F157" s="11">
+        <v>12</v>
+      </c>
+      <c r="G157" s="11">
+        <v>185</v>
+      </c>
+      <c r="H157" s="11">
+        <v>0</v>
+      </c>
+      <c r="I157" s="11">
+        <v>1374063</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" customFormat="false">
+      <c r="A158" s="10">
+        <v>85</v>
+      </c>
+      <c r="B158" s="11">
+        <v>1374063</v>
+      </c>
+      <c r="C158" s="10" t="str">
+        <v>2029年9月27日</v>
+      </c>
+      <c r="D158" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E158" s="11">
+        <v>16075</v>
+      </c>
+      <c r="F158" s="11">
+        <v>12</v>
+      </c>
+      <c r="G158" s="11">
+        <v>183</v>
+      </c>
+      <c r="H158" s="11">
+        <v>0</v>
+      </c>
+      <c r="I158" s="11">
+        <v>1357988</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" customFormat="false">
+      <c r="A159" s="10">
+        <v>84</v>
+      </c>
+      <c r="B159" s="11">
+        <v>1357988</v>
+      </c>
+      <c r="C159" s="10" t="str">
+        <v>2029年10月29日</v>
+      </c>
+      <c r="D159" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E159" s="11">
+        <v>16077</v>
+      </c>
+      <c r="F159" s="11">
+        <v>12</v>
+      </c>
+      <c r="G159" s="11">
+        <v>181</v>
+      </c>
+      <c r="H159" s="11">
+        <v>0</v>
+      </c>
+      <c r="I159" s="11">
+        <v>1341911</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" customFormat="false">
+      <c r="A160" s="10">
+        <v>83</v>
+      </c>
+      <c r="B160" s="11">
+        <v>1341911</v>
+      </c>
+      <c r="C160" s="10" t="str">
+        <v>2029年11月27日</v>
+      </c>
+      <c r="D160" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E160" s="11">
+        <v>16080</v>
+      </c>
+      <c r="F160" s="11">
+        <v>12</v>
+      </c>
+      <c r="G160" s="11">
+        <v>178</v>
+      </c>
+      <c r="H160" s="11">
+        <v>0</v>
+      </c>
+      <c r="I160" s="11">
+        <v>1325831</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" customFormat="false">
+      <c r="A161" s="10">
+        <v>82</v>
+      </c>
+      <c r="B161" s="11">
+        <v>1325831</v>
+      </c>
+      <c r="C161" s="10" t="str">
+        <v>2029年12月27日</v>
+      </c>
+      <c r="D161" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E161" s="11">
+        <v>16082</v>
+      </c>
+      <c r="F161" s="11">
+        <v>12</v>
+      </c>
+      <c r="G161" s="11">
+        <v>176</v>
+      </c>
+      <c r="H161" s="11">
+        <v>0</v>
+      </c>
+      <c r="I161" s="11">
+        <v>1309749</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" customFormat="false">
+      <c r="A162" s="10">
+        <v>81</v>
+      </c>
+      <c r="B162" s="11">
+        <v>1309749</v>
+      </c>
+      <c r="C162" s="10" t="str">
+        <v>2030年1月28日</v>
+      </c>
+      <c r="D162" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E162" s="11">
+        <v>16084</v>
+      </c>
+      <c r="F162" s="11">
+        <v>12</v>
+      </c>
+      <c r="G162" s="11">
+        <v>174</v>
+      </c>
+      <c r="H162" s="11">
+        <v>0</v>
+      </c>
+      <c r="I162" s="11">
+        <v>1293665</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" customFormat="false">
+      <c r="A163" s="10">
+        <v>80</v>
+      </c>
+      <c r="B163" s="11">
+        <v>1293665</v>
+      </c>
+      <c r="C163" s="10" t="str">
+        <v>2030年2月27日</v>
+      </c>
+      <c r="D163" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E163" s="11">
+        <v>16086</v>
+      </c>
+      <c r="F163" s="11">
+        <v>12</v>
+      </c>
+      <c r="G163" s="11">
+        <v>172</v>
+      </c>
+      <c r="H163" s="11">
+        <v>0</v>
+      </c>
+      <c r="I163" s="11">
+        <v>1277579</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" customFormat="false">
+      <c r="A164" s="10">
+        <v>79</v>
+      </c>
+      <c r="B164" s="11">
+        <v>1277579</v>
+      </c>
+      <c r="C164" s="10" t="str">
+        <v>2030年3月27日</v>
+      </c>
+      <c r="D164" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E164" s="11">
+        <v>16088</v>
+      </c>
+      <c r="F164" s="11">
+        <v>12</v>
+      </c>
+      <c r="G164" s="11">
+        <v>170</v>
+      </c>
+      <c r="H164" s="11">
+        <v>0</v>
+      </c>
+      <c r="I164" s="11">
+        <v>1261491</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" customFormat="false">
+      <c r="A165" s="10">
+        <v>78</v>
+      </c>
+      <c r="B165" s="11">
+        <v>1261491</v>
+      </c>
+      <c r="C165" s="10" t="str">
+        <v>2030年4月29日</v>
+      </c>
+      <c r="D165" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E165" s="11">
+        <v>16090</v>
+      </c>
+      <c r="F165" s="11">
+        <v>12</v>
+      </c>
+      <c r="G165" s="11">
+        <v>168</v>
+      </c>
+      <c r="H165" s="11">
+        <v>0</v>
+      </c>
+      <c r="I165" s="11">
+        <v>1245401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" customFormat="false">
+      <c r="A166" s="10">
+        <v>77</v>
+      </c>
+      <c r="B166" s="11">
+        <v>1245401</v>
+      </c>
+      <c r="C166" s="10" t="str">
+        <v>2030年5月27日</v>
+      </c>
+      <c r="D166" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E166" s="11">
+        <v>16092</v>
+      </c>
+      <c r="F166" s="11">
+        <v>12</v>
+      </c>
+      <c r="G166" s="11">
+        <v>166</v>
+      </c>
+      <c r="H166" s="11">
+        <v>0</v>
+      </c>
+      <c r="I166" s="11">
+        <v>1229309</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" customFormat="false">
+      <c r="A167" s="10">
+        <v>76</v>
+      </c>
+      <c r="B167" s="11">
+        <v>1229309</v>
+      </c>
+      <c r="C167" s="10" t="str">
+        <v>2030年6月27日</v>
+      </c>
+      <c r="D167" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E167" s="11">
+        <v>16095</v>
+      </c>
+      <c r="F167" s="11">
+        <v>12</v>
+      </c>
+      <c r="G167" s="11">
+        <v>163</v>
+      </c>
+      <c r="H167" s="11">
+        <v>0</v>
+      </c>
+      <c r="I167" s="11">
+        <v>1213214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" customFormat="false">
+      <c r="A168" s="10">
+        <v>75</v>
+      </c>
+      <c r="B168" s="11">
+        <v>1213214</v>
+      </c>
+      <c r="C168" s="10" t="str">
+        <v>2030年7月29日</v>
+      </c>
+      <c r="D168" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E168" s="11">
+        <v>16097</v>
+      </c>
+      <c r="F168" s="11">
+        <v>12</v>
+      </c>
+      <c r="G168" s="11">
+        <v>161</v>
+      </c>
+      <c r="H168" s="11">
+        <v>0</v>
+      </c>
+      <c r="I168" s="11">
+        <v>1197117</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" customFormat="false">
+      <c r="A169" s="10">
+        <v>74</v>
+      </c>
+      <c r="B169" s="11">
+        <v>1197117</v>
+      </c>
+      <c r="C169" s="10" t="str">
+        <v>2030年8月27日</v>
+      </c>
+      <c r="D169" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E169" s="11">
+        <v>16099</v>
+      </c>
+      <c r="F169" s="11">
+        <v>12</v>
+      </c>
+      <c r="G169" s="11">
+        <v>159</v>
+      </c>
+      <c r="H169" s="11">
+        <v>0</v>
+      </c>
+      <c r="I169" s="11">
+        <v>1181018</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" customFormat="false">
+      <c r="A170" s="10">
+        <v>73</v>
+      </c>
+      <c r="B170" s="11">
+        <v>1181018</v>
+      </c>
+      <c r="C170" s="10" t="str">
+        <v>2030年9月27日</v>
+      </c>
+      <c r="D170" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E170" s="11">
+        <v>16101</v>
+      </c>
+      <c r="F170" s="11">
+        <v>12</v>
+      </c>
+      <c r="G170" s="11">
+        <v>157</v>
+      </c>
+      <c r="H170" s="11">
+        <v>0</v>
+      </c>
+      <c r="I170" s="11">
+        <v>1164917</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" customFormat="false">
+      <c r="A171" s="10">
+        <v>72</v>
+      </c>
+      <c r="B171" s="11">
+        <v>1164917</v>
+      </c>
+      <c r="C171" s="10" t="str">
+        <v>2030年10月28日</v>
+      </c>
+      <c r="D171" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E171" s="11">
+        <v>16103</v>
+      </c>
+      <c r="F171" s="11">
+        <v>12</v>
+      </c>
+      <c r="G171" s="11">
+        <v>155</v>
+      </c>
+      <c r="H171" s="11">
+        <v>0</v>
+      </c>
+      <c r="I171" s="11">
+        <v>1148814</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" customFormat="false">
+      <c r="A172" s="10">
+        <v>71</v>
+      </c>
+      <c r="B172" s="11">
+        <v>1148814</v>
+      </c>
+      <c r="C172" s="10" t="str">
+        <v>2030年11月27日</v>
+      </c>
+      <c r="D172" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E172" s="11">
+        <v>16105</v>
+      </c>
+      <c r="F172" s="11">
+        <v>12</v>
+      </c>
+      <c r="G172" s="11">
+        <v>153</v>
+      </c>
+      <c r="H172" s="11">
+        <v>0</v>
+      </c>
+      <c r="I172" s="11">
+        <v>1132709</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" customFormat="false">
+      <c r="A173" s="10">
+        <v>70</v>
+      </c>
+      <c r="B173" s="11">
+        <v>1132709</v>
+      </c>
+      <c r="C173" s="10" t="str">
+        <v>2030年12月27日</v>
+      </c>
+      <c r="D173" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E173" s="11">
+        <v>16107</v>
+      </c>
+      <c r="F173" s="11">
+        <v>12</v>
+      </c>
+      <c r="G173" s="11">
+        <v>151</v>
+      </c>
+      <c r="H173" s="11">
+        <v>0</v>
+      </c>
+      <c r="I173" s="11">
+        <v>1116602</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" customFormat="false">
+      <c r="A174" s="10">
+        <v>69</v>
+      </c>
+      <c r="B174" s="11">
+        <v>1116602</v>
+      </c>
+      <c r="C174" s="10" t="str">
+        <v>2031年1月27日</v>
+      </c>
+      <c r="D174" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E174" s="11">
+        <v>16110</v>
+      </c>
+      <c r="F174" s="11">
+        <v>12</v>
+      </c>
+      <c r="G174" s="11">
+        <v>148</v>
+      </c>
+      <c r="H174" s="11">
+        <v>0</v>
+      </c>
+      <c r="I174" s="11">
+        <v>1100492</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" customFormat="false">
+      <c r="A175" s="10">
+        <v>68</v>
+      </c>
+      <c r="B175" s="11">
+        <v>1100492</v>
+      </c>
+      <c r="C175" s="10" t="str">
+        <v>2031年2月27日</v>
+      </c>
+      <c r="D175" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E175" s="11">
+        <v>16112</v>
+      </c>
+      <c r="F175" s="11">
+        <v>12</v>
+      </c>
+      <c r="G175" s="11">
+        <v>146</v>
+      </c>
+      <c r="H175" s="11">
+        <v>0</v>
+      </c>
+      <c r="I175" s="11">
+        <v>1084380</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" customFormat="false">
+      <c r="A176" s="10">
+        <v>67</v>
+      </c>
+      <c r="B176" s="11">
+        <v>1084380</v>
+      </c>
+      <c r="C176" s="10" t="str">
+        <v>2031年3月27日</v>
+      </c>
+      <c r="D176" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E176" s="11">
+        <v>16114</v>
+      </c>
+      <c r="F176" s="11">
+        <v>12</v>
+      </c>
+      <c r="G176" s="11">
+        <v>144</v>
+      </c>
+      <c r="H176" s="11">
+        <v>0</v>
+      </c>
+      <c r="I176" s="11">
+        <v>1068266</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" customFormat="false">
+      <c r="A177" s="10">
+        <v>66</v>
+      </c>
+      <c r="B177" s="11">
+        <v>1068266</v>
+      </c>
+      <c r="C177" s="10" t="str">
+        <v>2031年4月28日</v>
+      </c>
+      <c r="D177" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E177" s="11">
+        <v>16116</v>
+      </c>
+      <c r="F177" s="11">
+        <v>12</v>
+      </c>
+      <c r="G177" s="11">
+        <v>142</v>
+      </c>
+      <c r="H177" s="11">
+        <v>0</v>
+      </c>
+      <c r="I177" s="11">
+        <v>1052150</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" customFormat="false">
+      <c r="A178" s="10">
+        <v>65</v>
+      </c>
+      <c r="B178" s="11">
+        <v>1052150</v>
+      </c>
+      <c r="C178" s="10" t="str">
+        <v>2031年5月27日</v>
+      </c>
+      <c r="D178" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E178" s="11">
+        <v>16118</v>
+      </c>
+      <c r="F178" s="11">
+        <v>12</v>
+      </c>
+      <c r="G178" s="11">
+        <v>140</v>
+      </c>
+      <c r="H178" s="11">
+        <v>0</v>
+      </c>
+      <c r="I178" s="11">
+        <v>1036032</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" customFormat="false">
+      <c r="A179" s="10">
+        <v>64</v>
+      </c>
+      <c r="B179" s="11">
+        <v>1036032</v>
+      </c>
+      <c r="C179" s="10" t="str">
+        <v>2031年6月27日</v>
+      </c>
+      <c r="D179" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E179" s="11">
+        <v>16120</v>
+      </c>
+      <c r="F179" s="11">
+        <v>12</v>
+      </c>
+      <c r="G179" s="11">
+        <v>138</v>
+      </c>
+      <c r="H179" s="11">
+        <v>0</v>
+      </c>
+      <c r="I179" s="11">
+        <v>1019912</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" customFormat="false">
+      <c r="A180" s="10">
+        <v>63</v>
+      </c>
+      <c r="B180" s="11">
+        <v>1019912</v>
+      </c>
+      <c r="C180" s="10" t="str">
+        <v>2031年7月28日</v>
+      </c>
+      <c r="D180" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E180" s="11">
+        <v>16123</v>
+      </c>
+      <c r="F180" s="11">
+        <v>12</v>
+      </c>
+      <c r="G180" s="11">
+        <v>135</v>
+      </c>
+      <c r="H180" s="11">
+        <v>0</v>
+      </c>
+      <c r="I180" s="11">
+        <v>1003789</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" customFormat="false">
+      <c r="A181" s="10">
+        <v>62</v>
+      </c>
+      <c r="B181" s="11">
+        <v>1003789</v>
+      </c>
+      <c r="C181" s="10" t="str">
+        <v>2031年8月27日</v>
+      </c>
+      <c r="D181" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E181" s="11">
+        <v>16125</v>
+      </c>
+      <c r="F181" s="11">
+        <v>12</v>
+      </c>
+      <c r="G181" s="11">
+        <v>133</v>
+      </c>
+      <c r="H181" s="11">
+        <v>0</v>
+      </c>
+      <c r="I181" s="11">
+        <v>987664</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" customFormat="false">
+      <c r="A182" s="10">
+        <v>61</v>
+      </c>
+      <c r="B182" s="11">
+        <v>987664</v>
+      </c>
+      <c r="C182" s="10" t="str">
+        <v>2031年9月29日</v>
+      </c>
+      <c r="D182" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E182" s="11">
+        <v>16127</v>
+      </c>
+      <c r="F182" s="11">
+        <v>12</v>
+      </c>
+      <c r="G182" s="11">
+        <v>131</v>
+      </c>
+      <c r="H182" s="11">
+        <v>0</v>
+      </c>
+      <c r="I182" s="11">
+        <v>971537</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" customFormat="false">
+      <c r="A183" s="10">
+        <v>60</v>
+      </c>
+      <c r="B183" s="11">
+        <v>971537</v>
+      </c>
+      <c r="C183" s="10" t="str">
+        <v>2031年10月27日</v>
+      </c>
+      <c r="D183" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E183" s="11">
+        <v>16129</v>
+      </c>
+      <c r="F183" s="11">
+        <v>12</v>
+      </c>
+      <c r="G183" s="11">
+        <v>129</v>
+      </c>
+      <c r="H183" s="11">
+        <v>0</v>
+      </c>
+      <c r="I183" s="11">
+        <v>955408</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" customFormat="false">
+      <c r="A184" s="10">
+        <v>59</v>
+      </c>
+      <c r="B184" s="11">
+        <v>955408</v>
+      </c>
+      <c r="C184" s="10" t="str">
+        <v>2031年11月27日</v>
+      </c>
+      <c r="D184" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E184" s="11">
+        <v>16131</v>
+      </c>
+      <c r="F184" s="11">
+        <v>12</v>
+      </c>
+      <c r="G184" s="11">
+        <v>127</v>
+      </c>
+      <c r="H184" s="11">
+        <v>0</v>
+      </c>
+      <c r="I184" s="11">
+        <v>939277</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" customFormat="false">
+      <c r="A185" s="10">
+        <v>58</v>
+      </c>
+      <c r="B185" s="11">
+        <v>939277</v>
+      </c>
+      <c r="C185" s="10" t="str">
+        <v>2031年12月29日</v>
+      </c>
+      <c r="D185" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E185" s="11">
+        <v>16133</v>
+      </c>
+      <c r="F185" s="11">
+        <v>12</v>
+      </c>
+      <c r="G185" s="11">
+        <v>125</v>
+      </c>
+      <c r="H185" s="11">
+        <v>0</v>
+      </c>
+      <c r="I185" s="11">
+        <v>923144</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" customFormat="false">
+      <c r="A186" s="10">
+        <v>57</v>
+      </c>
+      <c r="B186" s="11">
+        <v>923144</v>
+      </c>
+      <c r="C186" s="10" t="str">
+        <v>2032年1月27日</v>
+      </c>
+      <c r="D186" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E186" s="11">
+        <v>16135</v>
+      </c>
+      <c r="F186" s="11">
+        <v>12</v>
+      </c>
+      <c r="G186" s="11">
+        <v>123</v>
+      </c>
+      <c r="H186" s="11">
+        <v>0</v>
+      </c>
+      <c r="I186" s="11">
+        <v>907009</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" customFormat="false">
+      <c r="A187" s="10">
+        <v>56</v>
+      </c>
+      <c r="B187" s="11">
+        <v>907009</v>
+      </c>
+      <c r="C187" s="10" t="str">
+        <v>2032年2月27日</v>
+      </c>
+      <c r="D187" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E187" s="11">
+        <v>16138</v>
+      </c>
+      <c r="F187" s="11">
+        <v>12</v>
+      </c>
+      <c r="G187" s="11">
+        <v>120</v>
+      </c>
+      <c r="H187" s="11">
+        <v>0</v>
+      </c>
+      <c r="I187" s="11">
+        <v>890871</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" customFormat="false">
+      <c r="A188" s="10">
+        <v>55</v>
+      </c>
+      <c r="B188" s="11">
+        <v>890871</v>
+      </c>
+      <c r="C188" s="10" t="str">
+        <v>2032年3月29日</v>
+      </c>
+      <c r="D188" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E188" s="11">
+        <v>16140</v>
+      </c>
+      <c r="F188" s="11">
+        <v>12</v>
+      </c>
+      <c r="G188" s="11">
+        <v>118</v>
+      </c>
+      <c r="H188" s="11">
+        <v>0</v>
+      </c>
+      <c r="I188" s="11">
+        <v>874731</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" customFormat="false">
+      <c r="A189" s="10">
+        <v>54</v>
+      </c>
+      <c r="B189" s="11">
+        <v>874731</v>
+      </c>
+      <c r="C189" s="10" t="str">
+        <v>2032年4月27日</v>
+      </c>
+      <c r="D189" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E189" s="11">
+        <v>16142</v>
+      </c>
+      <c r="F189" s="11">
+        <v>12</v>
+      </c>
+      <c r="G189" s="11">
+        <v>116</v>
+      </c>
+      <c r="H189" s="11">
+        <v>0</v>
+      </c>
+      <c r="I189" s="11">
+        <v>858589</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" customFormat="false">
+      <c r="A190" s="10">
+        <v>53</v>
+      </c>
+      <c r="B190" s="11">
+        <v>858589</v>
+      </c>
+      <c r="C190" s="10" t="str">
+        <v>2032年5月27日</v>
+      </c>
+      <c r="D190" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E190" s="11">
+        <v>16144</v>
+      </c>
+      <c r="F190" s="11">
+        <v>12</v>
+      </c>
+      <c r="G190" s="11">
+        <v>114</v>
+      </c>
+      <c r="H190" s="11">
+        <v>0</v>
+      </c>
+      <c r="I190" s="11">
+        <v>842445</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" customFormat="false">
+      <c r="A191" s="10">
+        <v>52</v>
+      </c>
+      <c r="B191" s="11">
+        <v>842445</v>
+      </c>
+      <c r="C191" s="10" t="str">
+        <v>2032年6月28日</v>
+      </c>
+      <c r="D191" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E191" s="11">
+        <v>16146</v>
+      </c>
+      <c r="F191" s="11">
+        <v>12</v>
+      </c>
+      <c r="G191" s="11">
+        <v>112</v>
+      </c>
+      <c r="H191" s="11">
+        <v>0</v>
+      </c>
+      <c r="I191" s="11">
+        <v>826299</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" customFormat="false">
+      <c r="A192" s="10">
+        <v>51</v>
+      </c>
+      <c r="B192" s="11">
+        <v>826299</v>
+      </c>
+      <c r="C192" s="10" t="str">
+        <v>2032年7月27日</v>
+      </c>
+      <c r="D192" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E192" s="11">
+        <v>16148</v>
+      </c>
+      <c r="F192" s="11">
+        <v>12</v>
+      </c>
+      <c r="G192" s="11">
+        <v>110</v>
+      </c>
+      <c r="H192" s="11">
+        <v>0</v>
+      </c>
+      <c r="I192" s="11">
+        <v>810151</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" customFormat="false">
+      <c r="A193" s="10">
+        <v>50</v>
+      </c>
+      <c r="B193" s="11">
+        <v>810151</v>
+      </c>
+      <c r="C193" s="10" t="str">
+        <v>2032年8月27日</v>
+      </c>
+      <c r="D193" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E193" s="11">
+        <v>16150</v>
+      </c>
+      <c r="F193" s="11">
+        <v>12</v>
+      </c>
+      <c r="G193" s="11">
+        <v>108</v>
+      </c>
+      <c r="H193" s="11">
+        <v>0</v>
+      </c>
+      <c r="I193" s="11">
+        <v>794001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" customFormat="false">
+      <c r="A194" s="10">
+        <v>49</v>
+      </c>
+      <c r="B194" s="11">
+        <v>794001</v>
+      </c>
+      <c r="C194" s="10" t="str">
+        <v>2032年9月27日</v>
+      </c>
+      <c r="D194" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E194" s="11">
+        <v>16153</v>
+      </c>
+      <c r="F194" s="11">
+        <v>12</v>
+      </c>
+      <c r="G194" s="11">
+        <v>105</v>
+      </c>
+      <c r="H194" s="11">
+        <v>0</v>
+      </c>
+      <c r="I194" s="11">
+        <v>777848</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" customFormat="false">
+      <c r="A195" s="10">
+        <v>48</v>
+      </c>
+      <c r="B195" s="11">
+        <v>777848</v>
+      </c>
+      <c r="C195" s="10" t="str">
+        <v>2032年10月27日</v>
+      </c>
+      <c r="D195" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E195" s="11">
+        <v>16155</v>
+      </c>
+      <c r="F195" s="11">
+        <v>12</v>
+      </c>
+      <c r="G195" s="11">
+        <v>103</v>
+      </c>
+      <c r="H195" s="11">
+        <v>0</v>
+      </c>
+      <c r="I195" s="11">
+        <v>761693</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" customFormat="false">
+      <c r="A196" s="10">
+        <v>47</v>
+      </c>
+      <c r="B196" s="11">
+        <v>761693</v>
+      </c>
+      <c r="C196" s="10" t="str">
+        <v>2032年11月29日</v>
+      </c>
+      <c r="D196" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E196" s="11">
+        <v>16157</v>
+      </c>
+      <c r="F196" s="11">
+        <v>12</v>
+      </c>
+      <c r="G196" s="11">
+        <v>101</v>
+      </c>
+      <c r="H196" s="11">
+        <v>0</v>
+      </c>
+      <c r="I196" s="11">
+        <v>745536</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" customFormat="false">
+      <c r="A197" s="10">
+        <v>46</v>
+      </c>
+      <c r="B197" s="11">
+        <v>745536</v>
+      </c>
+      <c r="C197" s="10" t="str">
+        <v>2032年12月27日</v>
+      </c>
+      <c r="D197" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E197" s="11">
+        <v>16159</v>
+      </c>
+      <c r="F197" s="11">
+        <v>12</v>
+      </c>
+      <c r="G197" s="11">
+        <v>99</v>
+      </c>
+      <c r="H197" s="11">
+        <v>0</v>
+      </c>
+      <c r="I197" s="11">
+        <v>729377</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" customFormat="false">
+      <c r="A198" s="10">
+        <v>45</v>
+      </c>
+      <c r="B198" s="11">
+        <v>729377</v>
+      </c>
+      <c r="C198" s="10" t="str">
+        <v>2033年1月27日</v>
+      </c>
+      <c r="D198" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E198" s="11">
+        <v>16161</v>
+      </c>
+      <c r="F198" s="11">
+        <v>12</v>
+      </c>
+      <c r="G198" s="11">
+        <v>97</v>
+      </c>
+      <c r="H198" s="11">
+        <v>0</v>
+      </c>
+      <c r="I198" s="11">
+        <v>713216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" customFormat="false">
+      <c r="A199" s="10">
+        <v>44</v>
+      </c>
+      <c r="B199" s="11">
+        <v>713216</v>
+      </c>
+      <c r="C199" s="10" t="str">
+        <v>2033年2月28日</v>
+      </c>
+      <c r="D199" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E199" s="11">
+        <v>16163</v>
+      </c>
+      <c r="F199" s="11">
+        <v>12</v>
+      </c>
+      <c r="G199" s="11">
+        <v>95</v>
+      </c>
+      <c r="H199" s="11">
+        <v>0</v>
+      </c>
+      <c r="I199" s="11">
+        <v>697053</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" customFormat="false">
+      <c r="A200" s="10">
+        <v>43</v>
+      </c>
+      <c r="B200" s="11">
+        <v>697053</v>
+      </c>
+      <c r="C200" s="10" t="str">
+        <v>2033年3月28日</v>
+      </c>
+      <c r="D200" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E200" s="11">
+        <v>16166</v>
+      </c>
+      <c r="F200" s="11">
+        <v>12</v>
+      </c>
+      <c r="G200" s="11">
+        <v>92</v>
+      </c>
+      <c r="H200" s="11">
+        <v>0</v>
+      </c>
+      <c r="I200" s="11">
+        <v>680887</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" customFormat="false">
+      <c r="A201" s="10">
+        <v>42</v>
+      </c>
+      <c r="B201" s="11">
+        <v>680887</v>
+      </c>
+      <c r="C201" s="10" t="str">
+        <v>2033年4月27日</v>
+      </c>
+      <c r="D201" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E201" s="11">
+        <v>16168</v>
+      </c>
+      <c r="F201" s="11">
+        <v>12</v>
+      </c>
+      <c r="G201" s="11">
+        <v>90</v>
+      </c>
+      <c r="H201" s="11">
+        <v>0</v>
+      </c>
+      <c r="I201" s="11">
+        <v>664719</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" customFormat="false">
+      <c r="A202" s="10">
+        <v>41</v>
+      </c>
+      <c r="B202" s="11">
+        <v>664719</v>
+      </c>
+      <c r="C202" s="10" t="str">
+        <v>2033年5月27日</v>
+      </c>
+      <c r="D202" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E202" s="11">
+        <v>16170</v>
+      </c>
+      <c r="F202" s="11">
+        <v>12</v>
+      </c>
+      <c r="G202" s="11">
+        <v>88</v>
+      </c>
+      <c r="H202" s="11">
+        <v>0</v>
+      </c>
+      <c r="I202" s="11">
+        <v>648549</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" customFormat="false">
+      <c r="A203" s="10">
+        <v>40</v>
+      </c>
+      <c r="B203" s="11">
+        <v>648549</v>
+      </c>
+      <c r="C203" s="10" t="str">
+        <v>2033年6月27日</v>
+      </c>
+      <c r="D203" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E203" s="11">
+        <v>16172</v>
+      </c>
+      <c r="F203" s="11">
+        <v>12</v>
+      </c>
+      <c r="G203" s="11">
+        <v>86</v>
+      </c>
+      <c r="H203" s="11">
+        <v>0</v>
+      </c>
+      <c r="I203" s="11">
+        <v>632377</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" customFormat="false">
+      <c r="A204" s="10">
+        <v>39</v>
+      </c>
+      <c r="B204" s="11">
+        <v>632377</v>
+      </c>
+      <c r="C204" s="10" t="str">
+        <v>2033年7月27日</v>
+      </c>
+      <c r="D204" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E204" s="11">
+        <v>16174</v>
+      </c>
+      <c r="F204" s="11">
+        <v>12</v>
+      </c>
+      <c r="G204" s="11">
+        <v>84</v>
+      </c>
+      <c r="H204" s="11">
+        <v>0</v>
+      </c>
+      <c r="I204" s="11">
+        <v>616203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" customFormat="false">
+      <c r="A205" s="10">
+        <v>38</v>
+      </c>
+      <c r="B205" s="11">
+        <v>616203</v>
+      </c>
+      <c r="C205" s="10" t="str">
+        <v>2033年8月29日</v>
+      </c>
+      <c r="D205" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E205" s="11">
+        <v>16176</v>
+      </c>
+      <c r="F205" s="11">
+        <v>12</v>
+      </c>
+      <c r="G205" s="11">
+        <v>82</v>
+      </c>
+      <c r="H205" s="11">
+        <v>0</v>
+      </c>
+      <c r="I205" s="11">
+        <v>600027</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" customFormat="false">
+      <c r="A206" s="10">
+        <v>37</v>
+      </c>
+      <c r="B206" s="11">
+        <v>600027</v>
+      </c>
+      <c r="C206" s="10" t="str">
+        <v>2033年9月27日</v>
+      </c>
+      <c r="D206" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E206" s="11">
+        <v>16178</v>
+      </c>
+      <c r="F206" s="11">
+        <v>12</v>
+      </c>
+      <c r="G206" s="11">
+        <v>80</v>
+      </c>
+      <c r="H206" s="11">
+        <v>0</v>
+      </c>
+      <c r="I206" s="11">
+        <v>583849</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" customFormat="false">
+      <c r="A207" s="10">
+        <v>36</v>
+      </c>
+      <c r="B207" s="11">
+        <v>583849</v>
+      </c>
+      <c r="C207" s="10" t="str">
+        <v>2033年10月27日</v>
+      </c>
+      <c r="D207" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E207" s="11">
+        <v>16181</v>
+      </c>
+      <c r="F207" s="11">
+        <v>12</v>
+      </c>
+      <c r="G207" s="11">
+        <v>77</v>
+      </c>
+      <c r="H207" s="11">
+        <v>0</v>
+      </c>
+      <c r="I207" s="11">
+        <v>567668</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" customFormat="false">
+      <c r="A208" s="10">
+        <v>35</v>
+      </c>
+      <c r="B208" s="11">
+        <v>567668</v>
+      </c>
+      <c r="C208" s="10" t="str">
+        <v>2033年11月28日</v>
+      </c>
+      <c r="D208" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E208" s="11">
+        <v>16183</v>
+      </c>
+      <c r="F208" s="11">
+        <v>12</v>
+      </c>
+      <c r="G208" s="11">
+        <v>75</v>
+      </c>
+      <c r="H208" s="11">
+        <v>0</v>
+      </c>
+      <c r="I208" s="11">
+        <v>551485</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" customFormat="false">
+      <c r="A209" s="10">
+        <v>34</v>
+      </c>
+      <c r="B209" s="11">
+        <v>551485</v>
+      </c>
+      <c r="C209" s="10" t="str">
+        <v>2033年12月27日</v>
+      </c>
+      <c r="D209" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E209" s="11">
+        <v>16185</v>
+      </c>
+      <c r="F209" s="11">
+        <v>12</v>
+      </c>
+      <c r="G209" s="11">
+        <v>73</v>
+      </c>
+      <c r="H209" s="11">
+        <v>0</v>
+      </c>
+      <c r="I209" s="11">
+        <v>535300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" customFormat="false">
+      <c r="A210" s="10">
+        <v>33</v>
+      </c>
+      <c r="B210" s="11">
+        <v>535300</v>
+      </c>
+      <c r="C210" s="10" t="str">
+        <v>2034年1月27日</v>
+      </c>
+      <c r="D210" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E210" s="11">
+        <v>16187</v>
+      </c>
+      <c r="F210" s="11">
+        <v>12</v>
+      </c>
+      <c r="G210" s="11">
+        <v>71</v>
+      </c>
+      <c r="H210" s="11">
+        <v>0</v>
+      </c>
+      <c r="I210" s="11">
+        <v>519113</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" customFormat="false">
+      <c r="A211" s="10">
+        <v>32</v>
+      </c>
+      <c r="B211" s="11">
+        <v>519113</v>
+      </c>
+      <c r="C211" s="10" t="str">
+        <v>2034年2月27日</v>
+      </c>
+      <c r="D211" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E211" s="11">
+        <v>16189</v>
+      </c>
+      <c r="F211" s="11">
+        <v>12</v>
+      </c>
+      <c r="G211" s="11">
+        <v>69</v>
+      </c>
+      <c r="H211" s="11">
+        <v>0</v>
+      </c>
+      <c r="I211" s="11">
+        <v>502924</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" customFormat="false">
+      <c r="A212" s="10">
+        <v>31</v>
+      </c>
+      <c r="B212" s="11">
+        <v>502924</v>
+      </c>
+      <c r="C212" s="10" t="str">
+        <v>2034年3月27日</v>
+      </c>
+      <c r="D212" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E212" s="11">
+        <v>16191</v>
+      </c>
+      <c r="F212" s="11">
+        <v>12</v>
+      </c>
+      <c r="G212" s="11">
+        <v>67</v>
+      </c>
+      <c r="H212" s="11">
+        <v>0</v>
+      </c>
+      <c r="I212" s="11">
+        <v>486733</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" customFormat="false">
+      <c r="A213" s="10">
+        <v>30</v>
+      </c>
+      <c r="B213" s="11">
+        <v>486733</v>
+      </c>
+      <c r="C213" s="10" t="str">
+        <v>2034年4月27日</v>
+      </c>
+      <c r="D213" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E213" s="11">
+        <v>16194</v>
+      </c>
+      <c r="F213" s="11">
+        <v>12</v>
+      </c>
+      <c r="G213" s="11">
+        <v>64</v>
+      </c>
+      <c r="H213" s="11">
+        <v>0</v>
+      </c>
+      <c r="I213" s="11">
+        <v>470539</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" customFormat="false">
+      <c r="A214" s="10">
+        <v>29</v>
+      </c>
+      <c r="B214" s="11">
+        <v>470539</v>
+      </c>
+      <c r="C214" s="10" t="str">
+        <v>2034年5月29日</v>
+      </c>
+      <c r="D214" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E214" s="11">
+        <v>16196</v>
+      </c>
+      <c r="F214" s="11">
+        <v>12</v>
+      </c>
+      <c r="G214" s="11">
+        <v>62</v>
+      </c>
+      <c r="H214" s="11">
+        <v>0</v>
+      </c>
+      <c r="I214" s="11">
+        <v>454343</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" customFormat="false">
+      <c r="A215" s="10">
+        <v>28</v>
+      </c>
+      <c r="B215" s="11">
+        <v>454343</v>
+      </c>
+      <c r="C215" s="10" t="str">
+        <v>2034年6月27日</v>
+      </c>
+      <c r="D215" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E215" s="11">
+        <v>16198</v>
+      </c>
+      <c r="F215" s="11">
+        <v>12</v>
+      </c>
+      <c r="G215" s="11">
+        <v>60</v>
+      </c>
+      <c r="H215" s="11">
+        <v>0</v>
+      </c>
+      <c r="I215" s="11">
+        <v>438145</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" customFormat="false">
+      <c r="A216" s="10">
+        <v>27</v>
+      </c>
+      <c r="B216" s="11">
+        <v>438145</v>
+      </c>
+      <c r="C216" s="10" t="str">
+        <v>2034年7月27日</v>
+      </c>
+      <c r="D216" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E216" s="11">
+        <v>16200</v>
+      </c>
+      <c r="F216" s="11">
+        <v>12</v>
+      </c>
+      <c r="G216" s="11">
+        <v>58</v>
+      </c>
+      <c r="H216" s="11">
+        <v>0</v>
+      </c>
+      <c r="I216" s="11">
+        <v>421945</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" customFormat="false">
+      <c r="A217" s="10">
+        <v>26</v>
+      </c>
+      <c r="B217" s="11">
+        <v>421945</v>
+      </c>
+      <c r="C217" s="10" t="str">
+        <v>2034年8月28日</v>
+      </c>
+      <c r="D217" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E217" s="11">
+        <v>16202</v>
+      </c>
+      <c r="F217" s="11">
+        <v>12</v>
+      </c>
+      <c r="G217" s="11">
+        <v>56</v>
+      </c>
+      <c r="H217" s="11">
+        <v>0</v>
+      </c>
+      <c r="I217" s="11">
+        <v>405743</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" customFormat="false">
+      <c r="A218" s="10">
+        <v>25</v>
+      </c>
+      <c r="B218" s="11">
+        <v>405743</v>
+      </c>
+      <c r="C218" s="10" t="str">
+        <v>2034年9月27日</v>
+      </c>
+      <c r="D218" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E218" s="11">
+        <v>16204</v>
+      </c>
+      <c r="F218" s="11">
+        <v>12</v>
+      </c>
+      <c r="G218" s="11">
+        <v>54</v>
+      </c>
+      <c r="H218" s="11">
+        <v>0</v>
+      </c>
+      <c r="I218" s="11">
+        <v>389539</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" customFormat="false">
+      <c r="A219" s="10">
+        <v>24</v>
+      </c>
+      <c r="B219" s="11">
+        <v>389539</v>
+      </c>
+      <c r="C219" s="10" t="str">
+        <v>2034年10月27日</v>
+      </c>
+      <c r="D219" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E219" s="11">
+        <v>16207</v>
+      </c>
+      <c r="F219" s="11">
+        <v>12</v>
+      </c>
+      <c r="G219" s="11">
+        <v>51</v>
+      </c>
+      <c r="H219" s="11">
+        <v>0</v>
+      </c>
+      <c r="I219" s="11">
         <v>373332</v>
       </c>
-      <c r="F22" s="11">
-        <v>276</v>
-      </c>
-      <c r="G22" s="11">
+    </row>
+    <row r="220" spans="1:9" customFormat="false">
+      <c r="A220" s="10">
+        <v>23</v>
+      </c>
+      <c r="B220" s="11">
+        <v>373332</v>
+      </c>
+      <c r="C220" s="10" t="str">
+        <v>2034年11月27日</v>
+      </c>
+      <c r="D220" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E220" s="11">
+        <v>16209</v>
+      </c>
+      <c r="F220" s="11">
+        <v>12</v>
+      </c>
+      <c r="G220" s="11">
         <v>49</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H220" s="11">
+        <v>0</v>
+      </c>
+      <c r="I220" s="11">
+        <v>357123</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" customFormat="false">
+      <c r="A221" s="10">
+        <v>22</v>
+      </c>
+      <c r="B221" s="11">
+        <v>357123</v>
+      </c>
+      <c r="C221" s="10" t="str">
+        <v>2034年12月27日</v>
+      </c>
+      <c r="D221" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E221" s="11">
+        <v>16211</v>
+      </c>
+      <c r="F221" s="11">
+        <v>12</v>
+      </c>
+      <c r="G221" s="11">
+        <v>47</v>
+      </c>
+      <c r="H221" s="11">
+        <v>0</v>
+      </c>
+      <c r="I221" s="11">
+        <v>340912</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" customFormat="false">
+      <c r="A222" s="10">
+        <v>21</v>
+      </c>
+      <c r="B222" s="11">
+        <v>340912</v>
+      </c>
+      <c r="C222" s="10" t="str">
+        <v>2035年1月29日</v>
+      </c>
+      <c r="D222" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E222" s="11">
+        <v>16213</v>
+      </c>
+      <c r="F222" s="11">
+        <v>12</v>
+      </c>
+      <c r="G222" s="11">
+        <v>45</v>
+      </c>
+      <c r="H222" s="11">
+        <v>0</v>
+      </c>
+      <c r="I222" s="11">
+        <v>324699</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" customFormat="false">
+      <c r="A223" s="10">
+        <v>20</v>
+      </c>
+      <c r="B223" s="11">
+        <v>324699</v>
+      </c>
+      <c r="C223" s="10" t="str">
+        <v>2035年2月27日</v>
+      </c>
+      <c r="D223" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E223" s="11">
+        <v>16215</v>
+      </c>
+      <c r="F223" s="11">
+        <v>12</v>
+      </c>
+      <c r="G223" s="11">
+        <v>43</v>
+      </c>
+      <c r="H223" s="11">
+        <v>0</v>
+      </c>
+      <c r="I223" s="11">
+        <v>308484</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" customFormat="false">
+      <c r="A224" s="10">
+        <v>19</v>
+      </c>
+      <c r="B224" s="11">
+        <v>308484</v>
+      </c>
+      <c r="C224" s="10" t="str">
+        <v>2035年3月27日</v>
+      </c>
+      <c r="D224" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E224" s="11">
+        <v>16217</v>
+      </c>
+      <c r="F224" s="11">
+        <v>12</v>
+      </c>
+      <c r="G224" s="11">
+        <v>41</v>
+      </c>
+      <c r="H224" s="11">
+        <v>0</v>
+      </c>
+      <c r="I224" s="11">
+        <v>292267</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" customFormat="false">
+      <c r="A225" s="10">
+        <v>18</v>
+      </c>
+      <c r="B225" s="11">
+        <v>292267</v>
+      </c>
+      <c r="C225" s="10" t="str">
+        <v>2035年4月27日</v>
+      </c>
+      <c r="D225" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E225" s="11">
+        <v>16220</v>
+      </c>
+      <c r="F225" s="11">
+        <v>12</v>
+      </c>
+      <c r="G225" s="11">
+        <v>38</v>
+      </c>
+      <c r="H225" s="11">
+        <v>0</v>
+      </c>
+      <c r="I225" s="11">
+        <v>276047</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" customFormat="false">
+      <c r="A226" s="10">
+        <v>17</v>
+      </c>
+      <c r="B226" s="11">
+        <v>276047</v>
+      </c>
+      <c r="C226" s="10" t="str">
+        <v>2035年5月28日</v>
+      </c>
+      <c r="D226" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E226" s="11">
+        <v>16222</v>
+      </c>
+      <c r="F226" s="11">
+        <v>12</v>
+      </c>
+      <c r="G226" s="11">
+        <v>36</v>
+      </c>
+      <c r="H226" s="11">
+        <v>0</v>
+      </c>
+      <c r="I226" s="11">
+        <v>259825</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" customFormat="false">
+      <c r="A227" s="10">
+        <v>16</v>
+      </c>
+      <c r="B227" s="11">
+        <v>259825</v>
+      </c>
+      <c r="C227" s="10" t="str">
+        <v>2035年6月27日</v>
+      </c>
+      <c r="D227" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E227" s="11">
+        <v>16224</v>
+      </c>
+      <c r="F227" s="11">
+        <v>12</v>
+      </c>
+      <c r="G227" s="11">
+        <v>34</v>
+      </c>
+      <c r="H227" s="11">
+        <v>0</v>
+      </c>
+      <c r="I227" s="11">
+        <v>243601</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" customFormat="false">
+      <c r="A228" s="10">
+        <v>15</v>
+      </c>
+      <c r="B228" s="11">
+        <v>243601</v>
+      </c>
+      <c r="C228" s="10" t="str">
+        <v>2035年7月27日</v>
+      </c>
+      <c r="D228" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E228" s="11">
+        <v>16226</v>
+      </c>
+      <c r="F228" s="11">
+        <v>12</v>
+      </c>
+      <c r="G228" s="11">
+        <v>32</v>
+      </c>
+      <c r="H228" s="11">
+        <v>0</v>
+      </c>
+      <c r="I228" s="11">
+        <v>227375</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" customFormat="false">
+      <c r="A229" s="10">
+        <v>14</v>
+      </c>
+      <c r="B229" s="11">
+        <v>227375</v>
+      </c>
+      <c r="C229" s="10" t="str">
+        <v>2035年8月27日</v>
+      </c>
+      <c r="D229" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E229" s="11">
+        <v>16228</v>
+      </c>
+      <c r="F229" s="11">
+        <v>12</v>
+      </c>
+      <c r="G229" s="11">
+        <v>30</v>
+      </c>
+      <c r="H229" s="11">
+        <v>0</v>
+      </c>
+      <c r="I229" s="11">
+        <v>211147</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" customFormat="false">
+      <c r="A230" s="10">
+        <v>13</v>
+      </c>
+      <c r="B230" s="11">
+        <v>211147</v>
+      </c>
+      <c r="C230" s="10" t="str">
+        <v>2035年9月27日</v>
+      </c>
+      <c r="D230" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E230" s="11">
+        <v>16230</v>
+      </c>
+      <c r="F230" s="11">
+        <v>12</v>
+      </c>
+      <c r="G230" s="11">
+        <v>28</v>
+      </c>
+      <c r="H230" s="11">
+        <v>0</v>
+      </c>
+      <c r="I230" s="11">
+        <v>194917</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" customFormat="false">
+      <c r="A231" s="10">
+        <v>12</v>
+      </c>
+      <c r="B231" s="11">
+        <v>194917</v>
+      </c>
+      <c r="C231" s="10" t="str">
+        <v>2035年10月29日</v>
+      </c>
+      <c r="D231" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E231" s="11">
+        <v>16233</v>
+      </c>
+      <c r="F231" s="11">
+        <v>12</v>
+      </c>
+      <c r="G231" s="11">
+        <v>25</v>
+      </c>
+      <c r="H231" s="11">
+        <v>0</v>
+      </c>
+      <c r="I231" s="11">
+        <v>178684</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" customFormat="false">
+      <c r="A232" s="10">
+        <v>11</v>
+      </c>
+      <c r="B232" s="11">
+        <v>178684</v>
+      </c>
+      <c r="C232" s="10" t="str">
+        <v>2035年11月27日</v>
+      </c>
+      <c r="D232" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E232" s="11">
+        <v>16235</v>
+      </c>
+      <c r="F232" s="11">
+        <v>12</v>
+      </c>
+      <c r="G232" s="11">
+        <v>23</v>
+      </c>
+      <c r="H232" s="11">
+        <v>0</v>
+      </c>
+      <c r="I232" s="11">
+        <v>162449</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" customFormat="false">
+      <c r="A233" s="10">
+        <v>10</v>
+      </c>
+      <c r="B233" s="11">
+        <v>162449</v>
+      </c>
+      <c r="C233" s="10" t="str">
+        <v>2035年12月27日</v>
+      </c>
+      <c r="D233" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E233" s="11">
+        <v>16237</v>
+      </c>
+      <c r="F233" s="11">
+        <v>12</v>
+      </c>
+      <c r="G233" s="11">
+        <v>21</v>
+      </c>
+      <c r="H233" s="11">
+        <v>0</v>
+      </c>
+      <c r="I233" s="11">
+        <v>146212</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" customFormat="false">
+      <c r="A234" s="10">
+        <v>9</v>
+      </c>
+      <c r="B234" s="11">
+        <v>146212</v>
+      </c>
+      <c r="C234" s="10" t="str">
+        <v>2036年1月28日</v>
+      </c>
+      <c r="D234" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E234" s="11">
+        <v>16239</v>
+      </c>
+      <c r="F234" s="11">
+        <v>12</v>
+      </c>
+      <c r="G234" s="11">
+        <v>19</v>
+      </c>
+      <c r="H234" s="11">
+        <v>0</v>
+      </c>
+      <c r="I234" s="11">
+        <v>129973</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" customFormat="false">
+      <c r="A235" s="10">
+        <v>8</v>
+      </c>
+      <c r="B235" s="11">
+        <v>129973</v>
+      </c>
+      <c r="C235" s="10" t="str">
+        <v>2036年2月27日</v>
+      </c>
+      <c r="D235" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E235" s="11">
+        <v>16241</v>
+      </c>
+      <c r="F235" s="11">
+        <v>12</v>
+      </c>
+      <c r="G235" s="11">
+        <v>17</v>
+      </c>
+      <c r="H235" s="11">
+        <v>0</v>
+      </c>
+      <c r="I235" s="11">
+        <v>113732</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" customFormat="false">
+      <c r="A236" s="10">
+        <v>7</v>
+      </c>
+      <c r="B236" s="11">
+        <v>113732</v>
+      </c>
+      <c r="C236" s="10" t="str">
+        <v>2036年3月27日</v>
+      </c>
+      <c r="D236" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E236" s="11">
+        <v>16243</v>
+      </c>
+      <c r="F236" s="11">
+        <v>12</v>
+      </c>
+      <c r="G236" s="11">
+        <v>15</v>
+      </c>
+      <c r="H236" s="11">
+        <v>0</v>
+      </c>
+      <c r="I236" s="11">
+        <v>97489</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" customFormat="false">
+      <c r="A237" s="10">
+        <v>6</v>
+      </c>
+      <c r="B237" s="11">
+        <v>97489</v>
+      </c>
+      <c r="C237" s="10" t="str">
+        <v>2036年4月28日</v>
+      </c>
+      <c r="D237" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E237" s="11">
+        <v>16246</v>
+      </c>
+      <c r="F237" s="11">
+        <v>12</v>
+      </c>
+      <c r="G237" s="11">
+        <v>12</v>
+      </c>
+      <c r="H237" s="11">
+        <v>0</v>
+      </c>
+      <c r="I237" s="11">
+        <v>81243</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" customFormat="false">
+      <c r="A238" s="10">
+        <v>5</v>
+      </c>
+      <c r="B238" s="11">
+        <v>81243</v>
+      </c>
+      <c r="C238" s="10" t="str">
+        <v>2036年5月27日</v>
+      </c>
+      <c r="D238" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E238" s="11">
+        <v>16248</v>
+      </c>
+      <c r="F238" s="11">
+        <v>12</v>
+      </c>
+      <c r="G238" s="11">
+        <v>10</v>
+      </c>
+      <c r="H238" s="11">
+        <v>0</v>
+      </c>
+      <c r="I238" s="11">
+        <v>64995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" customFormat="false">
+      <c r="A239" s="10">
+        <v>4</v>
+      </c>
+      <c r="B239" s="11">
+        <v>64995</v>
+      </c>
+      <c r="C239" s="10" t="str">
+        <v>2036年6月27日</v>
+      </c>
+      <c r="D239" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E239" s="11">
+        <v>16250</v>
+      </c>
+      <c r="F239" s="11">
+        <v>12</v>
+      </c>
+      <c r="G239" s="11">
+        <v>8</v>
+      </c>
+      <c r="H239" s="11">
+        <v>0</v>
+      </c>
+      <c r="I239" s="11">
+        <v>48745</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" customFormat="false">
+      <c r="A240" s="10">
+        <v>3</v>
+      </c>
+      <c r="B240" s="11">
+        <v>48745</v>
+      </c>
+      <c r="C240" s="10" t="str">
+        <v>2036年7月28日</v>
+      </c>
+      <c r="D240" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E240" s="11">
+        <v>16252</v>
+      </c>
+      <c r="F240" s="11">
+        <v>12</v>
+      </c>
+      <c r="G240" s="11">
+        <v>6</v>
+      </c>
+      <c r="H240" s="11">
+        <v>0</v>
+      </c>
+      <c r="I240" s="11">
+        <v>32493</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" customFormat="false">
+      <c r="A241" s="10">
+        <v>2</v>
+      </c>
+      <c r="B241" s="11">
+        <v>32493</v>
+      </c>
+      <c r="C241" s="10" t="str">
+        <v>2036年8月27日</v>
+      </c>
+      <c r="D241" s="11">
+        <v>16270</v>
+      </c>
+      <c r="E241" s="11">
+        <v>16254</v>
+      </c>
+      <c r="F241" s="11">
+        <v>12</v>
+      </c>
+      <c r="G241" s="11">
+        <v>4</v>
+      </c>
+      <c r="H241" s="11">
+        <v>0</v>
+      </c>
+      <c r="I241" s="11">
+        <v>16239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" customFormat="false">
+      <c r="A242" s="10">
+        <v>1</v>
+      </c>
+      <c r="B242" s="11">
+        <v>16239</v>
+      </c>
+      <c r="C242" s="10" t="str">
+        <v>2036年9月29日</v>
+      </c>
+      <c r="D242" s="11">
+        <v>16388</v>
+      </c>
+      <c r="E242" s="11">
+        <v>16239</v>
+      </c>
+      <c r="F242" s="11">
+        <v>12</v>
+      </c>
+      <c r="G242" s="11">
+        <v>2</v>
+      </c>
+      <c r="H242" s="11">
         <v>135</v>
       </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" customFormat="false">
-      <c r="C23" s="1" t="str">
-        <v>返済総額</v>
-      </c>
-      <c r="D23" s="11">
-        <v>3849980</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" customFormat="false">
-      <c r="C24" s="1" t="str">
-        <v>繰り上げ差額</v>
-      </c>
-      <c r="D24" s="11">
-        <v>54969</v>
+      <c r="I242" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
